--- a/assets/HIPAA-Security-Controls-Mapping.xlsx
+++ b/assets/HIPAA-Security-Controls-Mapping.xlsx
@@ -1,41 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
-  <workbookPr filterPrivacy="1" showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kniekerk/WorkDocs/Shared With Me/hipaa/Final Release 08-24-2017/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\awsdonny\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19680" tabRatio="349"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="10590" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Introduction" sheetId="6" r:id="rId1"/>
+    <sheet name="Introduction" sheetId="1" r:id="rId1"/>
     <sheet name="HIPAA Regulation Matrix" sheetId="2" r:id="rId2"/>
-    <sheet name="Glossary" sheetId="4" r:id="rId3"/>
-    <sheet name="Change Record" sheetId="5" r:id="rId4"/>
+    <sheet name="Glossary" sheetId="3" r:id="rId3"/>
+    <sheet name="Change Record" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'HIPAA Regulation Matrix'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'HIPAA Regulation Matrix'!$A$2:$H$175</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Introduction!$A$1:$I$16</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <fileRecoveryPr autoRecover="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="732">
   <si>
     <t>N/A</t>
   </si>
@@ -954,113 +945,16 @@
  				(ii) A covered entity that is a government agency administering a government program providing public benefits may disclose protected health information relating to the program to another covered entity that is a government agency administering a government program providing public benefits if the programs serve the same or similar populations and the disclosure of protected health information is necessary to coordinate the covered functions of such programs or to improve administration and management relating to the covered functions of such programs.</t>
   </si>
   <si>
-    <t>In this architecture, the use of multiple AWS Availability Zones (AZs), Amazon S3 storage, and a replicated RDS database constitutes a built-in, live alternate storage and processing capability that dynamically provides transfer and resumption of all system operations, to include any critical business processes instantiated by the customer in this environment. The multiple AWS availability zones and redundant storage and processing employed by this architecture provide identical security safeguards for the protection of ePHI.</t>
-  </si>
-  <si>
     <t>AWS Resource Type(s)</t>
   </si>
   <si>
     <t>AWS CloudFormation Template Name (Stack)</t>
-  </si>
-  <si>
-    <t>AWS::CloudTrail::Trail
-AWS::CloudWatch::Alarm
-AWS::SNS::Topic
-AWS::Config::ConfigRule
-AWS::Lambda::Function
-AWS::Lambda::Permission</t>
-  </si>
-  <si>
-    <t>Logging Template
-Config-Rules Template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-AWS::CloudTrail::Trail
-AWS::S3::Bucket
-AWS::RDS::DBInstance
-AWS::ElasticLoadBalancing::LoadBalancer
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logging Template
-Application Template
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AWS::S3::Bucket
-AWS::S3::BucketPolicy
-AWS::RDS::DBInstance
-AWS::AutoScaling::LaunchConfiguration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logging Template
-Application Template
-IAM Template
-</t>
   </si>
   <si>
     <t>AWS::CloudTrail::Trail
 AWS::CloudWatch::Alarm
 AWS::SNS::Topic
 AWS::S3::Bucket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logging Template
-</t>
-  </si>
-  <si>
-    <t>AWS::EC2::AvailabilityZone
-AWS::AutoScaling::AutoScalingGroup
-AWS::RDS::DBSubnetGroup
-AWS::RDS::DBInstance
-AWS::S3::Bucket
-AWS::EC2::Subnet</t>
-  </si>
-  <si>
-    <t>Production VPC Template
-Management VPC Template
-Logging Template
-Application Template</t>
-  </si>
-  <si>
-    <t>AWS::EC2::AvailabilityZone
-AWS::AutoScaling::AutoScalingGroup
-AWS::RDS::DBSubnetGroup
-AWS::RDS::DBInstance
-AWS::S3::Bucket</t>
-  </si>
-  <si>
-    <t>Logging Template
-Application Template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-AWS::RDS::DBInstance
-AWS::AutoScaling::LaunchConfiguration
-AWS::S3::Bucket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS::EC2::AvailabilityZone
-AWS::AutoScaling::AutoScalingGroup
-AWS::RDS::DBSubnetGroup
-AWS::RDS::DBInstance
-AWS::S3::Bucket
-AWS::EC2::Subnet
-</t>
-  </si>
-  <si>
-    <t>AWS::IAM::Group
-AWS::IAM::Role
-AWS::IAM::InstanceProfile
-AWS::IAM::ManagedPolicy
-AWS::S3::BucketPolicy
-AWS::S3::Bucket</t>
-  </si>
-  <si>
-    <t>IAM Template
-Logging Template
-Application template</t>
   </si>
   <si>
     <t xml:space="preserve">AWS::CloudTrail::Trail
@@ -1071,61 +965,6 @@
 </t>
   </si>
   <si>
-    <t>IAM Template
-Logging Template</t>
-  </si>
-  <si>
-    <t>AWS::S3::Bucket
-AWS::S3::BucketPolicy
-AWS::AutoScaling::LaunchConfiguration
-AWS::EC2::Instance
-AWS::ElasticLoadBalancing::LoadBalancer
-AWS::EC2::SecurityGroup
-AWS::EC2::NetworkInterface</t>
-  </si>
-  <si>
-    <t>Logging Template
-Application Template
-NAT-Instance Template
-Production VPC Template
-Management VPC Template</t>
-  </si>
-  <si>
-    <t>AWS::CloudTrail::Trail
-AWS::S3::Bucket
-AWS::RDS::DBInstance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS::S3::Bucket
-AWS::S3::BucketPolicy
-AWS::AutoScaling::LaunchConfiguration
-AWS::EC2::Instance
-AWS::ElasticLoadBalancing::LoadBalancer 
-AWS::EC2::SecurityGroup
-AWS::EC2::NetworkInterface                                                  </t>
-  </si>
-  <si>
-    <t>Production VPC Template
-Management VPC Template
-Logging Template
-Application template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS::S3::BucketPolicy
-AWS::S3::Bucket
-AWS::EC2::SecurityGroup
-AWS::EC2::Instance
-AWS::ElasticLoadBalancing::LoadBalancer
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Management VPC Template
-Production VPC Template
-Logging Template
-Application template</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -1157,9 +996,6 @@
   </si>
   <si>
     <t>Updated to reflect BAA Change</t>
-  </si>
-  <si>
-    <t>Implement policies and procedures to limit physical access to [an entitys] electronic information systems and the facility or facilities in which they are housed, while ensuring that properly authorized access is allowed.</t>
   </si>
   <si>
     <t>Conduct an accurate and thorough assessment of the potential risks and vulnerabilities to the confidentiality, integrity, and availability of electronic protected health information held by the covered entity or business associate.</t>
@@ -1616,8 +1452,7 @@
     <t>Implement procedures to determine that the access of a workforce member to electronic protected health information is appropriate.</t>
   </si>
   <si>
-    <t xml:space="preserve">Implement procedures for terminating access to electronic protected health information when the employment of, or other arrangement with, a workforce member ends or as required by determinations made as specified in paragraph (a)(3)(ii)(b).
- 				</t>
+    <t>Implement procedures for terminating access to electronic protected health information when the employment of, or other arrangement with, a workforce member ends or as required by determinations made as specified in paragraph (a)(3)(ii)(b).</t>
   </si>
   <si>
     <t>Implement policies and procedures for authorizing access to electronic protected health information that are consistent with the applicable requirements of subpart E of this part.</t>
@@ -1665,8 +1500,7 @@
     <t>Assess the relative criticality of specific applications and data in support of other contingency plan components.</t>
   </si>
   <si>
-    <t xml:space="preserve">Perform a periodic technical and nontechnical evaluation, based initially upon the standards implemented under this rule and subsequently, in response to environmental or operational changes affecting the security of electronic protected health information, which establishes the extent to which a covered entity's or business associates security policies and procedures meet the requirements of this subpart.
- 				</t>
+    <t>Perform a periodic technical and nontechnical evaluation, based initially upon the standards implemented under this rule and subsequently, in response to environmental or operational changes affecting the security of electronic protected health information, which establishes the extent to which a covered entity's or business associates security policies and procedures meet the requirements of this subpart.</t>
   </si>
   <si>
     <t>Establish (and implement as needed) procedures that allow facility access in support of restoration of lost data under the disaster recovery plan and emergency mode operations plan in the event of an emergency.</t>
@@ -1829,10 +1663,6 @@
   </si>
   <si>
     <t>The customer is responsible for implementing policies and procedures that authorize access to ePHI. For instance, it is the customer's responsibility to identify which workforce members / class of workforce members require access to ePHI on AWS, and under what circumstances.</t>
-  </si>
-  <si>
-    <t>The customer is responsible for implementing transmission security policies and procedures.  The customer should consider how ePHI is transmitted (e.g. email, point-to-point network, etc.), and should establish appropriate means of safeguarding such transmissions.
-By default, the Amazon ELB cipher suite does not allow the older and less secure RC4 encryption. If Windows XP and IE6 are needed, an older cipher suite must be enabled within the load balancer listener HTTPS cipher settings.</t>
   </si>
   <si>
     <t>A covered entity may use or disclose protected health information to the extent that such use or disclosure is required by law and the use or disclosure complies and is limited to the relevant requirements of such law.
@@ -2050,10 +1880,6 @@
     <t>Under the AWS Business Associate Addendum (BAA), AWS agrees to report to the customer any successful security incident involving HIPAA accounts of which AWS becomes aware. The customer is additionally responsible for detecting security incidents involving ePHI on AWS by appropriately reviewing audit logs, and for taking appropriate action upon identifying a security incident.</t>
   </si>
   <si>
-    <t>Under HIPAA, encryption of data in transit is "addressable," meaning that it must be implemented when reasonable and appropriate, but a covered entity or business associate may document that it is not reasonable and appropriate, in which case it must implement an alternative equivalent measure if reasonable and appropriate. 
-Although addressable under HIPAA, the customer is required under the AWS Business Associate Addendum (BAA) to encrypt all PHI in-transit or at-rest in order to minimize risk to both the customer and AWS under HIPAA and other laws.</t>
-  </si>
-  <si>
     <t>The AWS Business Associate Addendum (BAA) provides that AWS will implement safeguards consistent with the Security Rule.</t>
   </si>
   <si>
@@ -2247,16 +2073,10 @@
     <t>Establish (and implement as needed) policies and procedures for responding to an emergency or other occurrence (As one illustrative example, fire, vandalism, system failure, and natural disaster) that damages systems that contain electronic protected health information.</t>
   </si>
   <si>
-    <t>The customer is responsible for determining how AWS will be used if customer is operating in an emergency mode. As one illustrative example, the customer should determine whether it expects to have access to networks with access to AWS when operating in an emergency mode.</t>
-  </si>
-  <si>
     <t>Implement policies and procedures to document repairs and modifications to the physical components of a facility which are related to security (As one illustrative example, hardware, walls, doors, and locks).</t>
   </si>
   <si>
     <t>AWS does not control how the customer workforce members or contractors access workstations. It is the customer’s responsibility to ensure that appropriate policies, procedures, and safeguards are in place with regard to workstations. As one illustrative example, if a customer uses AWS to transmit ePHI, it is the customer's responsibility to ensure that workstations are only accessible to those with necessary access.</t>
-  </si>
-  <si>
-    <t>The customer is responsible for implementing policies that document the required procedures to access ePHI on AWS in an emergency. As one illustrative example, it is the customer's responsibility to decide whether it wishes to ensure that there is not only one user with access to any particular ePHI on AWS, in the event the primary user is unavailable in an emergency.</t>
   </si>
   <si>
     <t>Standard: Uses and disclosures for involvement in the individual's care and notification purposes
@@ -2376,32 +2196,9 @@
     <t>Under the AWS Business Associate Addendum (BAA), AWS agrees to report to the customer any successful security incident involving HIPAA accounts of which AWS becomes aware. The customer is also responsible for detecting security incidents involving ePHI on AWS by appropriately reviewing audit logs, and for taking appropriate action upon identifying a security incident.</t>
   </si>
   <si>
-    <t xml:space="preserve">This architecture incorporates multiple AWS Availability Zones (AZs) and Amazon S3 storage, which are elemental to organizational plans for transfer of processing and storage to alternate sites, because this architecture constitutes a built-in alternate storage and processing capability that dynamically provides transfer and resumption of system operations in the event of failures due to fire, vandalism, hardware malfunctions, network/power outages, or a small area natural disaster. 
-</t>
-  </si>
-  <si>
     <t>The customer is responsible for creating a contingency plan that appropriately incorporates all aspects of their AWS use case (e.g. for backing up and restoring ePHI), and which address situations such as a potential lack of availability of ePHI on AWS.
 To address organizational requirements related to major regional disasters, AWS supports the ability to place data in multiple geographic regions, and multiple AWS Availability Zones (AZs) within each region. AZs consist of one or more discrete data centers, each with redundant power, networking and connectivity, housed in separate facilities. These AZs offer the ability to operate production applications and databases which are more highly available, fault tolerant and scalable than would be possible from a single data center.
 The customer is responsible for modifying this architecture to employ additional AWS regions and AZs, and to implement cross-region data synchronization, load balancing, etc.</t>
-  </si>
-  <si>
-    <t>The customer is responsible for all backups of data to address any requirements related to the recovery of individual S3 objects, RDS database objects, or EBS files, file systems that are destroyed, modified, or overwritten by logical actions, and to mitigate any residual risk of data loss caused by AWS hardware failures.
-To address organizational requirements related to major regional disasters, AWS supports the ability to place data in multiple geographic regions, and multiple AWS Availability Zones (AZs) within each region. AZs consist of one or more discrete data centers, each with redundant power, networking and connectivity, housed in separate facilities. These AZs offer the ability to operate production applications and databases which are more highly available, fault tolerant and scalable than would be possible from a single data center.
-The customer is responsible for modifying this architecture to employ additional AWS regions and AZs, and to implement cross-region data synchronization, load balancing, etc.</t>
-  </si>
-  <si>
-    <t>In this architecture, ePHI storage is limited to the Amazon RDS database, Amazon S3 buckets, and potentially secondary EBS volumes attached to the application/web server EC2 instances. 
-AWS built-in features provide a full backup of RDS using a full daily snapshot as well as through transaction logging at approximately five-minute intervals. This architecture is configured to retain RDS backups for the default of 1 day, which can be increased to 35 days by the customer. AWS also employs live storage redundancy for Amazon S3, which provides 99.999999999% durability of objects over a given year.  Amazon EBS is replicated across multiple volumes within a single availability zone. 
-This architecture employs multiple AWS Availability Zones (AZs), which provide alternate storage site capability for data stored in Amazon S3 and Amazon RDS databases.  S3 uses multiple availability zones by default, and the RDS databases deployed within this architecture are configured to be replicated across multiple availability zones, which instantiates a retrievable exact copy of ePHI.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The customer is responsible for documenting organizational procedures related to data recovery. Amazon RDS documentation is located at: 
-http://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/USER_PIT.html
-The customer should consider backing up all data to address any requirements related to the recovery of individual S3 objects, RDS database objects, or EBS files, file systems that are destroyed, modified, or overwritten by logical actions, and to mitigate any residual risk of data loss caused by AWS hardware failures.
-</t>
-  </si>
-  <si>
-    <t>In this architecture, ePHI storage is limited to the Amazon RDS database, Amazon S3 buckets, and potentially secondary EBS volumes attached to the application/web server EC2 instances.  Full database recovery from snapshot or point-in-time can be initiated from the RDS console/API. The Amazon S3 managed service features inherent redundancy, so that no customer-initiated data recovery operation is required. Amazon EBS does not include volume backup of customer data.</t>
   </si>
   <si>
     <t>To the extent the customer incorporates AWS into its contingency plans, the customer is responsible for testing such contingency plans. As one illustrative example, if the customer intends to have certain systems failover to AWS if the systems become unavailable, the customer should consider periodically testing its ability to failover to AWS, and whether it is able to meet recovery time objectives and recovery point objectives.</t>
@@ -2432,9 +2229,6 @@
 http://docs.aws.amazon.com/IAM/latest/UserGuide/id_credentials_passwords_account-policy.htm</t>
   </si>
   <si>
-    <t>Customers can configure AWS Services to control workforce access to ePHI stored or processed on AWS. For example, in this architecture, the RDS MySQL database, Secondary EBS volumes, and S3 buckets are encrypted, and IAM is configured with baseline access control policies for groups and roles to which authorized users may be assigned by the customer.</t>
-  </si>
-  <si>
     <t>AWS does not control how the customer's workforce members or contractors use workstations, or how the customer's workstations are configured. It is the customer’s responsibility to ensure that appropriate policies, procedures, and safeguards are in place with regard to workstations.  As one illustrative example, if a customer's workforce member uses AWS to transmit ePHI, it is the customer's responsibility to ensure that the workforce member's workstation is not easily seen by members of the general public.</t>
   </si>
   <si>
@@ -2442,64 +2236,15 @@
 The customer is responsible for implementing processes to delete objects or volumes containing ePHI when they are no longer needed. For more information on AWS's wiping policywiping policy please see https://d0.awsstatic.com/whitepapers/Security/AWS_Security_Whitepaper.pdf</t>
   </si>
   <si>
-    <t>In this architecture, ePHI storage is limited to the Amazon RDS database, Amazon S3 buckets, and potentially secondary EBS volumes attached to the application/web server EC2 instances, which employ AWS built-in hardware storage redundancy to maintain exact copies of ePHI at all times.  In this virtual environment, there is no movement of equipment.  
-AWS built-in features provide a full back up of RDS using a full daily snapshot as well as through transaction logging at approximately five-minute intervals. This architecture is configured to retain RDS backups for the default of 1 day, which can be increased to 35 days by the customer. AWS also employs live storage redundancy for Amazon S3, which provides 99.999999999% durability of objects over a given year. Amazon EBS is replicated across multiple volumes within a single Availability Zone. 
-This architecture employs multiple AWS Availability Zones (AZs), which provides alternate storage site capability for data stored in Amazon S3 and Amazon RDS databases.  AZs consist of one or more discrete data centers, each with redundant power, networking and connectivity, housed in separate facilities. AZs offer the ability to operate production applications and databases which are more available, fault-tolerant, and scalable than would be possible from a single data center.  S3 uses multiple AZs by default, and the RDS databases deployed within this architecture are configured to be replicated across multiple AZs, which instantiates a retrievable exact copy of ePHI.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As part of the Shared Responsibility Model, AWS is responsible for hardware maintenance activities that involve movement of physical equipment within AWS's facilities, and maintains storage redundancy to ensure customer data is not impacted by any infrastructure maintenance/hardware moves.  
-To address organizational requirements related to major regional disasters, AWS supports the ability to place data in multiple geographic regions, as well as AWS Availability Zones. The customer is responsible for modifying this architecture to employ additional AWS regions and Availability Zones, and for implementing cross-region data synchronization, load balancing, etc.
-The customer is responsible for all backups of data to address any requirements related to the recovery of individual S3 objects, RDS database objects, or EBS files, filesystems that are destroyed, modified, overwritten by logical actions and to mitigate any residual risk of data loss caused by AWS hardware failures.  If the customer downloads information from AWS to local devices, the customer is responsible for ensuring there is appropriate backup of the data before moving such devices. If the customer retains a copy of the ePHI on AWS, this may potentially serve as such a backup.
-</t>
-  </si>
-  <si>
-    <t>This architecture employs a baseline set of AWS Identity and Access Management (IAM) groups and roles to support alignment of user accounts to personnel roles at various levels of privilege related to infrastructure/platform management (e.g. Billing, EC2/VPC/RDS systems administration, I.T. auditing, etc.).  S3 buckets in this deployment have specific policies to restrict access to appropriate roles/groups, based on various criteria and under various conditions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As part of the Shared Responsibility Model, AWS is responsible for, and has put in place, technical safeguards within AWS facilites and the AWS environment to limit access to AWS accounts to only those persons or applications with appropriate credentials.
-AWS Identity and Access Management (IAM) permits the customer to control and enforce access to the AWS infrastructure.  Login/API access is restricted to those users for whom the customer has authorized and created or federated IAM user accounts, and provided IAM group and/or role membership (which specify access policies).
-The customer is responsible for implementing policies and procedures to: 1) authorize users before granting system permissions, 2) ensure that only authorized persons are assigned permissions within IAM, and 3) configure access control mechanisms within applications and operating systems to enforce access authorizations.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In this architecture, AWS CloudTrail and Amazon S3 Bucket logging are enabled by default, which provide tracking/audit trail capability for the organization to monitor the use of AWS  IAM  accounts for both interactive and non-interactive API-based user activity and data access activity. An Amazon S3 bucket centrally contains the CloudTrail audit logs. </t>
-  </si>
-  <si>
     <t>AWS Identity and Access Management (IAM) gives the customer the capability to identify and authenticate unique users. The customer organization, at its discretion, provides user accounts and privileges to both organizational non-organizational users in addition to organizational users. 
 AWS provides the ability to assign unique user IDs to users. The customer is responsible for implementing policies and procedures related to providing workforce members with unique user identification, rather than having multiple users share AWS user IDs and passwords.  Customers should consider using IAM to create unique logins for each user accessing the AWS system.  The Customer should also have a unique identifier for the operating system and application.</t>
   </si>
   <si>
-    <t xml:space="preserve">In this architecture, the use of multiple AWS Availability Zones (AZs), Amazon S3 storage, and a replicated RDS database constitutes a built-in, live alternate storage and processing capability.  ePHI storage is limited to the Amazon RDS database,  Amazon S3 buckets, and potentially secondary EBS volumes attached to the application/web server EC2 instances, which employ storage redundancy to maintain exact copies of ePHI at all times.
-AWS built-in features give the customer the abilty to connect to and access its AWS account environment from any location approved and configured by the customer. This supports the capability for accessing AWS resources and ePHI data during an emergency. </t>
-  </si>
-  <si>
     <t>The customer is responsible for implementing policies and procedures that ensure termination of electronic sessions after a period of inactivity.  As one illustrative example, the customer should check that their applications have automatic logoff timers.  
 The AWS console and remote API/CLI sessions employ Amazon STS tokens which automatically expire after 24 hours by default, regardless of activity, which terminates the electronic session. If the 24-hour automatic logoff timer for the AWS console is not sufficient, the customer is reponsible for ensuring that the operating system is configured to terminate SSH/RDP connections after a set timeout threshold.  See here to learn about federating access into AWS accounts using active directory to achieve session timeouts: https://aws.amazon.com/blogs/security/enabling-federation-to-aws-using-windows-active-directory-adfs-and-saml-2-0/ for more information.</t>
   </si>
   <si>
-    <t>With respect to encryption of data at-rest, this architecture employs AES-256 Server Side encryption in S3 and RDS databases, as well as for full disk encryption of an EBS data volume that is attached to the application/web server EC2 instances, to support the capability of storing ePHI on a local volume if required. 
-While this architecture includes secondary encrypted volumes for EC2 instances, the customer is responsible for configuring the system to use that volume according to organizational requirements, such as for the paging file, system logging, and application logs to the secondary drive to prevent any spillage of ePHI on a non-encrypted volume.</t>
-  </si>
-  <si>
-    <t>Under HIPAA, encryption of data is "addressable," meaning that it must be implemented when reasonable and appropriate. If it is not, then a covered entity or business associate may document that it is not reasonable and appropriate, and implement an alternative equivalent measure if reasonable and appropriate. 
-Although addressable under HIPAA, the customer is required under the AWS Business Associate Addendum (BAA) to encrypt all PHI in-transit or at-rest, either through server-side encryption or client-side encryption, in order to minimize risk to both the customer and AWS under HIPAA and other laws.
-The customer is responsible for employing any file encryption/decryption tools, PKI system, Amazon KMS , Amazon CloudHSM, etc. to provide any other encryption/decryption or key management capabilities required by the organization. By default, the Amazon ELB cipher suite does not allow the older and less secure RC4 encryption. If Windows XP and IE6 are needed, an older cipher suite must be enabled within the load balancer listener HTTPS cipher settings.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The customer's policies and procedures should ensure that information systems provide some level of audit controls while also ensuring that a workforce member reviews audit control reports on a regular basis. The AWS Business Associate Addendum (BAA) requires the customer to implement policies and procedures regarding audit controls. </t>
-  </si>
-  <si>
-    <t>In this architecture, AWS CloudTrail, S3 bucket logging, and Elastic Load Balancer (ELB) logging are enabled to record security-relevant user/API activities, data access activities, and source and destination addresses. Log records are stored in an S3 bucket for access by auditors and/or log analysis tools.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In this architecture, AWS CloudTrail, S3 bucket logging, and Elastic Load Balancer (ELB) logging are enabled to log all security-relevant user/API activities, data access activities, with the associated source and destination IP addresses. Log records are stored in an S3 bucket for access by auditors and/or log analysis tools. Versioning is enabled on the web data and log S3 buckets so that original content is retained upon any data object changes for potential comparison, and bucket logging is enabled to log changes.
-</t>
-  </si>
-  <si>
-    <t>AWS provides technical controls, such as encryption features, that are designed to protect the integrity of data in-transit and at-rest. The customer is responsible for implementing these integrity controls, policies, and procedures.  As one illustrative example, the customer should consider protecting the integrity of ePHI being transmitted through the use of network communications protocols. The customer should also consider employing additional required file integrity management systems and/or logging tools to detect unauthorized changes to Amazon S3 objects, RDS database objects, as well as files that reside on EC2 instance filesystems, per organizational requirements.</t>
-  </si>
-  <si>
-    <t>In this architecture, transmitted information is protected via a combination of  network access control mechanisms (for data confidentiality) and encryption features (for both confidentiality and integrity).  In AWS Management Console sessions, AWS API calls and Amazon S3 object access can only be conducted  over TLS.  The bastion host, EC2 instances and associated security groups are configured for SSH login access only. In addition, this architecture employs Security Groups at the web layer that restrict network traffic to port 443 (HTTPS) for end user access.  For web user access, the Elastic Load Balancer (ELB) employs TCP pass-thorough to the EC2 endpoints to enforce end-to-end  HTTPS encryption.</t>
   </si>
   <si>
     <t>Assign a unique name and/or number for identifying and tracking user identity.</t>
@@ -2524,7 +2269,7 @@
     <t>The customer is responsible for maintaining its own policies and procedures, as well as any other documentation related to the security of ePHI (including ePHI that the customer uses in connection with AWS services), according to §164.316(b)(2)(i).</t>
   </si>
   <si>
-    <t xml:space="preserve">				Definitions: Breach - Risk Assessment.
+    <t>Definitions: Breach - Risk Assessment.
 				Breach means the acquisition, access, use, or disclosure of PHI in a manner not permitted under subpart E of this part which compromises the security or privacy of the PHI.
  				(2) Except as provided in paragraph (1) of this definition, an acquisition, access, use, or disclosure of PHI in a manner not permitted under subpart E is presumed to be a breach unless the covered entity or business associate, as applicable, demonstrates that there is a low probability that the PHI has been compromised based on a risk assessment of at least the following factors:
  				(i) The nature and extent of the PHI involved, including the types of identifiers and the likelihood of re-identification;
@@ -2533,7 +2278,7 @@
  				(iv) The extent to which the risk to the PHI has been mitigated.</t>
   </si>
   <si>
-    <t xml:space="preserve">Definitions: Breach Exceptions - Unsecured PHI
+    <t>Definitions: Breach Exceptions - Unsecured PHI
 				Breach means the acquisition, access, use, or disclosure of PHI in a manner not permitted under subpart E of this part which compromises the security or privacy of the PHI.
  				(1) Breach excludes:
  				(i) Any unintentional acquisition, access, or use of PHI by a workforce member or person acting under the authority of a covered entity or a business associate, if such acquisition, access, or use was made in good faith and within the scope of authority and does not result in further use or disclosure in a manner not permitted under subpart E of this part.
@@ -2544,8 +2289,7 @@
  				(ii) The unauthorized person who used the protected health information or to whom the disclosure was made;
  				(iii) Whether the protected health information was actually acquired or viewed; and
  				(iv) The extent to which the risk to the protected health information has been mitigated.
- 				Unsecured protected health information means protected health information that is not rendered unusable, unreadable, or indecipherable to unauthorized persons through the use of a technology or methodology specified by the Secretary in the guidance issued under section 13402(h)(2) of Public Law 111-5.
- 				</t>
+ 				Unsecured protected health information means protected health information that is not rendered unusable, unreadable, or indecipherable to unauthorized persons through the use of a technology or methodology specified by the Secretary in the guidance issued under section 13402(h)(2) of Public Law 111-5.</t>
   </si>
   <si>
     <t>AWS does not control how the customer uses AWS services in connection with ePHI. It is the customer’s responsibility to determine its obligations under HIPAA, and only use AWS services in a manner that complies with HIPAA.</t>
@@ -2580,9 +2324,6 @@
 (1) Ensure the confidentiality, integrity, and availability of all electronic protected health information the covered entity or business associate creates, receives, maintains, or transmits. (2) Protect against any reasonably anticipated threats or hazards to the security or integrity of such information. (3) Protect against any reasonably anticipated uses or disclosures of such information that are not permitted or required under subpart E of this part; and (4) Ensure compliance with this subpart by its workforce.</t>
   </si>
   <si>
-    <t>In this architecture, all AWS Management Console sessions, API call sessions, and Amazon S3 object access can only be conducted over encrypted sessions via TLS, and the bastion host, EC2 instances and associated security groups are configured for encrypted SSH sessions only, to protect clear text ePHI from being transmitted deliberately (upload/download) or inadvertantly during interactive systems management operations.  For web user access, the Elastic Load Balancer (ELB) employs TCP pass-thorough to the EC2 endpoints to enforce end-to-end HTTPS encryption.</t>
-  </si>
-  <si>
     <t xml:space="preserve">AWS offers a variety of security tools, and the customer has certain flexibility in determining how best to secure any ePHI it maintains on AWS using such tools. The customer should also be aware of security-related contractual requirements in the AWS Business Associate Addendum (BAA), such as the requirement to encrypt ePHI.  It is the customer's responsibility to follow all contractual requirements in the BAA. </t>
   </si>
   <si>
@@ -2593,9 +2334,6 @@
 </t>
   </si>
   <si>
-    <t>Customers may choose to incorporate certain features in AWS Services as a component of its procedures for reviewing information system activity. For example, in this architecture, AWS CloudTrail,  S3 bucket logging, and Elastic Load Balancer (ELB) logging are enabled to support the capability for review of IS activity by logging all security-relevant user/API activities, data access activities, and source and destination addresses. Log records are stored in an S3 bucket for access by auditors and/or log analysis tools.</t>
-  </si>
-  <si>
     <t>In this architecture, Amazon CloudWatch alarms and AWS Config and associated Config Rules (in regions where available) are employed to provide a configuration history, resource inventory, automated review mechanisms for system changes in near real time, and are pre-configured to notify subscribers of an SNS topic If these security-relevant changes occur: IAM Configuration changes detected, New IAM access key created, CloudTrail log configuration changes detected, creation, update or deletion of a Security Group or Network ACL, unrestricted-ssh-access and unrestricted ports (no source/destination restrictions)</t>
   </si>
   <si>
@@ -2659,15 +2397,6 @@
     <t xml:space="preserve">IMPORTANT: AWS does not provide legal or compliance advice.  Customers are solely responsible for determining and complying with their obligations under HIPAA, the AWS Business Associate Addendum (BAA), and all other applicable laws, rules and regulations. Customers should consult with qualified legal counsel or consultants, as needed, to ensure that their use of AWS complies with HIPAA, the terms of the AWS BAA, and other applicable laws, rules, and regulations.  The information contained in this QuickStart package is not exhaustive, and must be reviewed, evaluated, assessed, and approved by the customer in connection with the customer's particular security features, tools, and configurations. </t>
   </si>
   <si>
-    <t xml:space="preserve">This architecture employs a combination of access control mechanisms, cryptographic mechanisms, and redundancy relevant to the confidentiality, integrity (to include alteration and destruction) and availability of data at-rest and in-transit.
-For data at-rest, Amazon S3 storage buckets include access control policies which restrict data read/write/delete to authorized AWS IAM roles/groups, with a default-deny permissions model. A baseline set of IAM policies are in place for associated job functions for those authorized IAM users assigned to the IAM roles/groups. AES-256 Server Side encryption is employed for data stored in S3, RDS databases and for full disk encryption of an EBS data volume that is attached to the application/web server instances, to support the capability of storing ePHI on a local volume if required.  In addition, versioning is enabled on S3 buckets so that original content is retained upon any data object changes for potential comparison, and bucket logging is enabled to log changes.
-For data in-transit, to protect against exposure of any clear text ePHI transmitted deliberately (upload/download) or incidentally during interactive systems management operations, all AWS Management Console sessions, API call sessions, and Amazon S3 object access can only be conducted over encrypted sessions via TLS. The bastion host, EC2 instances and associated security groups are configured for encrypted SSH sessions only.  For web user access, the Elastic Load Balancer (ELB) employs TCP pass-thorough to the EC2 endpoints to enforce end-to-end  HTTPS encryption.
-In this architecture, ePHI storage is limited to the Amazon RDS database, Amazon S3 buckets, and potentially secondary EBS volumes attached to the application/web server EC2 instances, which employ AWS built-in hardware storage redundancy to maintain exact copies of ePHI at all times.  In this virtual environment, there is no movement of equipment.  AWS is responsible for hardware maintenance activities that involve movement of physical equipment, and maintains storage redundancy so that customer data is not impacted by any infrastructure maintenance/hardware moves.
-To address availability requirements, this architecture employs multiple AWS Availability Zones (AZs), which provide alternate storage site capability for data stored in Amazon S3 and Amazon RDS databases.  S3 uses multiple AZs by default, and the RDS databases deployed within this architecture are configured to be replicated across multiple AZs, which instantiates a retrievable exact copy of ePHI.
-AWS built-in features support availability requirements by providing a full backup of RDS using a full daily snapshot as well as through transaction logging at approximately five-minute intervals. This architecture is configured to retain RDS backups for the default of 1 day, which can be increased to 35 days by the customer. AWS also employs live storage redundancy for Amazon S3, which provides 99.999999999% durability of objects over a given year. Amazon EBS is replicated across multiple volumes within a single availability zone. 
-</t>
-  </si>
-  <si>
     <t>As part of the Shared Responsibility Model, AWS has implemented policies and procedures to address the final disposition of hardware and electronic media within  AWS facilities.  AWS prohibits the removal of ANY storage device or media, unless it has been properly degaussed and destroyed, and AWS degausses and destroys media at the time of disposal. Additionally, customers may choose to proactively wipe information when no longer needed. For more information on AWS's wiping policy, please see https://d0.awsstatic.com/whitepapers/Security/AWS_Security_Whitepaper.pdf
 The customer is responsible for implementing policies and procedures that govern the receipt, removal, and final disposition of ePHI and/or hardware and electronic media containing ePHI within the customer's facilities and on-premises environment, as well as the customer's configurable portion of the logical infrastructure, such as data on EC2 instances and the customer's applications.</t>
   </si>
@@ -2682,11 +2411,6 @@
     <t>The Quick Start Implementation cannot address this administrative safeguard, but AWS does offer a BAA to customers.</t>
   </si>
   <si>
-    <t xml:space="preserve">Although AWS implements robust safeguards and provides security tools for customers to protect the confidentiality, integrity, and availability of ePHI on AWS servers and to protect against reasonably anticipated threats, AWS alone cannot ensure such security. 
-The customer should consider what reasonably anticipated threats fall under its control. As one illustrative example, the customer should consider the risk that a workforce member will accidentally delete, or abuse access to, ePHI that the customer maintains on AWS.
-</t>
-  </si>
-  <si>
     <t>The HIPAA Regulatory Citations in this document align with the Phase 2 of the U.S. Department of Health and Human Services (HHS) Office of Civil Rights (OCR) HIPAA Privacy, Security, and Breach Notification Audit Program.  Note: All 52 controls from phase 1 have been included within phase 2 by the U.S. Department of Health and Human Services (HHS).</t>
   </si>
   <si>
@@ -2715,12 +2439,6 @@
   </si>
   <si>
     <t>We hope you have enjoyed this release</t>
-  </si>
-  <si>
-    <t>This architecture employs a combination of access control mechanisms and cryptographic mechanisms to protect integrity (to include alteration and destruction) of data at rest. Amazon S3 storage buckets include access control policies which restrict data read/write/delete to authorized AWS IAM roles/groups, with a default-deny permissions model. A baseline set of IAM policies are in place for associated job functions for those authorized IAM users assigned to the IAM roles/groups.  For data at-rest, AES-256 server-side encryption is employed for data stored in S3 and RDS databases, and for full disk encryption of an EBS data volume that is attached to the application/web server instances, to support the capability of storing ePHI on a local volume if required.  In addition, versioning is enabled on S3 buckets so that original content is retained upon any data object changes for potential comparison, and bucket logging is enabled to log changes.</t>
-  </si>
-  <si>
-    <t>In this architecture, TLS is employed for Console access, CLI, and API endpoints for AWS service access, Amazon S3 for object access, and AWS Elastic Load Balances (ELB) endpoints for user web access. SSH is employed for Bastion host access and sessions between the bastion host and internal network nodes, including any EC2-based NAT instances. TLS/SSH ports and protocols are enforced by Security Groups.</t>
   </si>
   <si>
     <t xml:space="preserve">As part of the Shared Responsibility Model, AWS has implemented, physical environment controls associated with AWS data center facilities and the hardware components within them. If exact details are needed, the AWS SOC2 report can be downloaded in the AWS management console with Artifact. To learn more, go to https://aws.amazon.com/artifact.
@@ -2752,11 +2470,13 @@
 The customer is responsible for implementing this control within the customer's facilities and on-premises environment. As one illustrative example, when the customer downloads ePHI from AWS to a local device or media, then the customer is responsible for documenting the movement of such hardware and electronic media.</t>
   </si>
   <si>
-    <t>The customer is responsible for implementing policies and procedures to ensure that workforce members have appropriate access to ePHI and to prevent workforce members who do not have access to ePHI from obtaining access. This includes controlling which workforce members have credentials for accessing ePHI stored on AWS.
-AWS is responsible for controlling physical access to data centers to prevent against unauthorized access to system hardware that contains PHI.  As part of that, AWS has implemented procedures for its workforce members.  If exact details are needed, the AWS SOC2 report can be downloaded in the AWS management console with Artifact. To learn more, go to https://aws.amazon.com/artifact.</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
       <t xml:space="preserve">AWS Enterprise Accelerator - Compliance: Reference Architecture for Running HIPAA Workloads on AWS Services
 </t>
     </r>
@@ -2764,20 +2484,16 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>HIPAA Regulatory Mappings to AWS Quick Start Implementation</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2788,8 +2504,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2801,8 +2515,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>IMPORTANT, PLEASE READ</t>
     </r>
@@ -2812,8 +2524,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>: 
 1. This QuickStart guide is intended as a reference to assist customers when using the reference architecture in the AWS HIPAA QuickStart implementation.  It is provided for informational purposes only.
@@ -2828,10 +2538,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2840,10 +2548,8 @@
       <rPr>
         <u/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Definitions used in this QuickStart guide
 </t>
@@ -2851,10 +2557,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">1. Where this QuickStart guide referes to an "entity," it means both a "covered entity" and a "business associate" (as defined under HIPAA), unless otherwise identified as one or the other.
 2. "Management" refers to the appropriate privacy, security, and breach notification official(s) or person(s) designated by the covered entity or business associate for the implementation of policies and procedures and other standards.
@@ -2888,26 +2592,27 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
       <t>This document shows which portions of this AWS Quick Start package are relevant for customers when they evaluate their ability to comply with certain HIPAA regulatory requirements.  The column titled "</t>
     </r>
     <r>
       <rPr>
         <i/>
         <sz val="14"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>Quick Start Implementation's Applicability to the Customer's HIPAA Compliance Program</t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>" describes AWS services and features configured using typical best-practices, so that the customer can determine whether the infrastructure layer provided by the Quick Start architecture is helpful to the customer's HIPAA compliance program. The architecture and security documentation contained in this Quick Start package are only suggestions, and should not be used as a singular guide for HIPAA compliance. HIPAA compliance programs differ from customer to customer, and each customer is responsible for customizing the architecture to align with their particular security and compliance goals.</t>
     </r>
@@ -3010,6 +2715,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
       <t xml:space="preserve">This section provides a sorting category to indicate which type of HIPAA Rule is specified within the row.
 </t>
     </r>
@@ -3017,20 +2727,16 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>Categories:</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 Breach Notification Rule
@@ -3039,100 +2745,217 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>AWS::CloudTrail::Trail
+AWS::S3::Bucket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this architecture, AWS CloudTrail and S3 bucket logging are enabled to log all security-relevant user/API activities, data access activities, with the associated source and destination IP addresses. Log records are stored in an S3 bucket for access by auditors and/or log analysis tools. Versioning is enabled on the web data and log S3 buckets so that original content is retained upon any data object changes for potential comparison, and bucket logging is enabled to log changes.
+</t>
+  </si>
+  <si>
+    <t>In this architecture, AWS CloudTrail and S3 bucket logging are enabled to record security-relevant user/API activities, data access activities, and source and destination addresses. Log records are stored in an S3 bucket for access by auditors and/or log analysis tools.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS::S3::Bucket
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this architecture, AWS CloudTrail and Amazon S3 Bucket logging are enabled by default, which provide tracking/audit trail capability for the organization to monitor the use of AWS  IAM accounts for both interactive and non-interactive API-based user activity and data access activity. An Amazon S3 bucket centrally contains the CloudTrail audit logs. </t>
+  </si>
+  <si>
+    <t>Customers may choose to incorporate certain features in AWS Services as a component of its procedures for reviewing information system activity. For example, in this architecture, AWS CloudTrail and S3 bucket logging are enabled to support the capability for review of IS activity by logging all security-relevant user/API activities, data access activities, and source and destination addresses. Log records are stored in an S3 bucket for access by auditors and/or log analysis tools.</t>
+  </si>
+  <si>
+    <t>AWS::CloudTrail::Trail
+AWS::S3::Bucket
+AWS::S3::BucketPolicy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Although AWS implements robust safeguards and provides security tools for customers to protect the confidentiality, integrity, and availability of ePHI on AWS servers and to protect against reasonably anticipated threats, AWS alone cannot ensure such security. 
+The customer should consider what reasonably anticipated threats fall under its control. As one illustrative example, the customer should consider the risk that a workforce member will accidentally delete, or abuse access to, ePHI that the customer maintains on AWS.
+To meet this requirement, employ a combination of access control mechanisms, cryptographic mechanisms, and redundancy relevant to the confidentiality, integrity (to include alteration and destruction) and availability of data at-rest and in-transit.
+For data at-rest, Amazon S3 storage buckets should include access control policies which restrict data read/write/delete to authorized AWS IAM roles/groups, with a default-deny permissions model.. Enable AES-256 Server Side encryption for data stored in S3, RDS databases, and for full disk encryption of an EBS data volume that is attached to EC2 server instances.  This supports the capability of storing ePHI on a local volume if required.  In addition, enable versioning  on S3 buckets so that original content is retained upon any data object changes for potential comparison, and bucket logging is enabled to log changes.
+For data in-transit, to protect against exposure of any clear text ePHI transmitted deliberately (upload/download) or incidentally during interactive systems management operations, all AWS Management Console sessions, API call sessions, and Amazon S3 object access should only be conducted over encrypted sessions via TLS. Access to EC2 instances iva bastion hosts or AWS Systems Manager (SSM) Sessions Manager and associated security groups should be configured for encrypted SSH sessions only.  Another example is if user web access is required to an EC2 endpoint, leverage TCP pass-thorough through Elastic Load Balancers (ELB) to enforce end-to-end HTTPS encryption.
+AWS is responsible for hardware maintenance activities that involve movement of physical equipment, and maintains storage redundancy so that customer data is not impacted by any infrastructure maintenance/hardware moves.
+To address availability requirements, leveraging multiple AWS Availability Zones (AZs) provides redundant storage capability for data stored in Amazon S3 and Amazon RDS databases.  S3 uses multiple AZs by default while RDS databases must be deployed in a multi-AZ architecture to be replicated across multiple AZs, which instantiates a retrievable exact copy of ePHI.
+Additional AWS built-in features that support availability requirements includ configuring a full backup of RDS using a full daily snapshot as well as through transaction logging at approximately five-minute intervals.  RDS backups are retained for 1 day by default, but can be increased to 35 days by the customer. AWS also employs live storage redundancy for Amazon S3, which provides 99.999999999% durability of objects over a given year. Amazon EBS is replicated across multiple volumes within a single availability zone. </t>
+  </si>
+  <si>
+    <t>AWS::CloudTrail::Trail
+AWS::CloudWatch::Alarm
+AWS::SNS::Topic
+AWS::Config::ConfigRule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS::S3::Bucket
+</t>
+  </si>
+  <si>
+    <t>The customer is responsible for determining how AWS will be used if customer is operating in an emergency mode. As one illustrative example, the customer should determine whether it expects to have access to networks with access to AWS when operating in an emergency mode.
+The use of multiple AWS Availability Zones (AZs) for application servers, Amazon S3 storage, and replicated RDS database would constitute a built-in, live alternate storage and processing capability that would dynamically provide transfer and resumption of all system operations, to include any critical business processes instantiated by the customer in their environment. As the customer deploys application and storage resources, leverage the multiple AWS availability zones employed by this architecture provide identical security safeguards for the protection of ePHI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The customer is responsible for all backups of data to address any requirements related to the recovery of individual S3 objects, RDS database objects, or EBS files, file systems that are destroyed, modified, or overwritten by logical actions, and to mitigate any residual risk of data loss caused by AWS hardware failures.
+To address organizational requirements related to major regional disasters, AWS supports the ability to place data in multiple geographic regions, and multiple AWS Availability Zones (AZs) within each region. AZs consist of one or more discrete data centers, each with redundant power, networking and connectivity, housed in separate facilities. These AZs offer the ability to operate production applications and databases which are more highly available, fault tolerant and scalable than would be possible from a single data center.
+You can build on this architecture using the multiple AWS Availability Zones (AZs) to provide alternate storage site capabilityies.  For example, RDS databases can be deployed within this architecture configured to replicate across multiple availability zones providing a retrievable exact copy of ePHI.
+The customer is responsible for modifying this architecture to employ additional AWS regions and AZs, and to implement cross-region data synchronization, load balancing, etc.
+AWS employs live storage redundancy for Amazon S3 across multiple Availability Zones within a region by default, which provides 99.999999999% durability of objects over a given year.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The customer is responsible for documenting organizational procedures related to data recovery. 
+The customer should consider backing up all data to address any requirements related to the recovery of individual S3 objects, RDS database objects, or EBS files, file systems that are destroyed, modified, or overwritten by logical actions, and to mitigate any residual risk of data loss caused by AWS hardware failures.
+Amazon RDS documentation for backup and recovery is located at: 
+https://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/CHAP_CommonTasks.BackupRestore.html
+Documentation for backing up Amazon EBS volumes is located at: shttps://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSSnapshots.html
+AWS employs live storage redundancy for Amazon S3 across multiple Availability Zones within a region by default, which provides 99.999999999% durability of objects over a given year. For addtional protection of S3 data, enable S3 Versioning. Documentation can be found at: https://docs.aws.amazon.com/AmazonS3/latest/userguide/Versioning.html 
+</t>
+  </si>
+  <si>
+    <t>In this architecture, use the multiple AWS Availability Zones (AZs) to host applications and resources in different locations within a Region configured in a way that meet this requirement.  Another example is S3 buckets are replicated to multiple AZs within a Region providing a built in safeguard for CloudTrail logs. While this is not ePHI, it is required to track access to resources containing ePHI.  S3 provides built-in, live alerternate storage and protection of AWS API and access activity logs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The customer is responsible for implementing policies that document the required procedures to access ePHI on AWS in an emergency. As one illustrative example, it is the customer's responsibility to decide whether it wishes to ensure that there is not only one user with access to any particular ePHI on AWS, in the event the primary user is unavailable in an emergency.
+The use of multiple AWS Availability Zones (AZs) and Amazon S3 storage with versioning constitutes built-in, live durable storage capabilities.  AWS built-in features give the customer the abilty to connect to and access its AWS account environment from any location approved and configured by the customer. This supports the capability for accessing AWS resources and ePHI data during an emergency. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this architecture, AWS CloudTrail and Amazon S3 Bucket logging are enabled by default, which provide tracking/audit trail capability for the organization to monitor access to electronic health information during an emergency.  
+</t>
+  </si>
+  <si>
+    <t>Under HIPAA, encryption of data is "addressable," meaning that it must be implemented when reasonable and appropriate. If it is not, then a covered entity or business associate may document that it is not reasonable and appropriate, and implement an alternative equivalent measure if reasonable and appropriate. 
+Although addressable under HIPAA, the customer is required under the AWS Business Associate Addendum (BAA) to encrypt all PHI in-transit or at-rest, either through server-side encryption or client-side encryption, in order to minimize risk to both the customer and AWS under HIPAA and other laws.
+The customer is responsible for employing any file encryption/decryption tools, PKI system, Amazon KMS , Amazon CloudHSM, etc. to provide any other encryption/decryption or key management capabilities required by the organization. By default, the Amazon ELB cipher suite does not allow the older and less secure RC4 encryption. If Windows XP and IE6 are needed, an older cipher suite must be enabled within the load balancer listener HTTPS cipher settings.
+With respect to encryption of data at-rest, this architecture employs AES-256 Server Side encryption in S3.  
+As you deploy EC2 instances and RDS databases, configure full disk encryption of EBS data volume(s) that is attached to application/web server EC2 instances, to support the capability of storing ePHI on a local volume if required. 
+The customer is responsible for configuring systems to use storage volumes according to organizational requirements, such as for the paging file, system logging, and application logs to the secondary drive to prevent any spillage of ePHI on a non-encrypted volume.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this virtual environment, there is no movement of equipment.  </t>
+  </si>
+  <si>
+    <t>As part of the Shared Responsibility Model, AWS is responsible for hardware maintenance activities that involve movement of physical equipment within AWS's facilities, and maintains storage redundancy to ensure customer data is not impacted by any infrastructure maintenance/hardware moves.  
+To address organizational requirements related to major regional disasters, AWS supports the ability to place data in multiple geographic regions, as well as AWS Availability Zones. The customer is responsible for modifying this architecture to employ additional AWS regions and Availability Zones, and for implementing cross-region data synchronization, load balancing, etc.   AZs consist of one or more discrete data centers, each with redundant power, networking and connectivity, housed in separate facilities. AZs offer the ability to operate production applications and databases which are more available, fault-tolerant, and scalable than would be possible from a single data center.  S3 uses multiple AZs by default which instantiates a retrievable exact copy of ePHI as it is stored in the environment.  AWS also employs live storage redundancy for Amazon S3, which provides 99.999999999% durability of objects over a given year. 
+The customer is responsible for all backups of data to address any requirements related to the recovery of individual S3 objects, RDS database objects, or EBS files, filesystems that are destroyed, modified, overwritten by logical actions and to mitigate any residual risk of data loss caused by AWS hardware failures.  If the customer downloads information from AWS to local devices, the customer is responsible for ensuring there is appropriate backup of the data before moving such devices. If the customer retains a copy of the ePHI on AWS, this may potentially serve as such a backup.</t>
+  </si>
+  <si>
+    <t>As part of the Shared Responsibility Model, AWS is responsible for, and has put in place, technical safeguards within AWS facilites and the AWS environment to limit access to AWS accounts to only those persons or applications with appropriate credentials.
+AWS Identity and Access Management (IAM) permits the customer to control and enforce access to the AWS infrastructure.  Login/API access is restricted to those users for whom the customer has authorized and created or federated IAM user accounts, and provided IAM group and/or role membership (which specify access policies).
+The customer is responsible for implementing policies and procedures to: 1) authorize users before granting system permissions, 2) ensure that only authorized persons are assigned permissions within IAM, and 3) configure access control mechanisms within applications and operating systems to enforce access authorizations.
+S3 buckets used for logging in this deployment have specific policies to restrict access to appropriate roles/groups, based on various criteria and under various conditions.</t>
+  </si>
+  <si>
+    <t>AWS provides technical tools to maintain integrity of ePHI.  Use a combination of  access control and cryptographic mechanisms to protect the integrity (to include alteration and destruction) of data at rest. It is the customer's responsibility to enable encryption and  appropriately assign access, such as providing read-only access to certain users where appropriate to avoid unintentional or unauthorized alteration or deletion of ePHI on AWS.
+For example, Amazon S3 storage buckets can be configured to include access control policies which restrict data read/write/delete to authorized AWS IAM roles/groups, with a default-deny permissions model.  For data at-rest, employ AES-256 server-side encryption for data stored in S3.  In addition, enable versioning on S3 buckets so that original content is retained upon any data object changes for potential comparison.  Enable bucket logging to log changes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The customer is responsible for implementing transmission security policies and procedures.  The customer should consider how ePHI is transmitted (e.g. email, point-to-point network, etc.), and should establish appropriate means of safeguarding such transmissions.
+By default, the Amazon ELB cipher suite does not allow the older and less secure RC4 encryption. If Windows XP and IE6 are needed, an older cipher suite must be enabled within the load balancer listener HTTPS cipher settings.
+TLS is employed for AWS Console access, CLI, and API endpoints for AWS service access, and Amazon S3 for object access.  TLS/SSH ports and protocols should be employed to protect ePHI in transit.  The customer can monitor and enforce these configurations through policies, AWS Certificate Manger, AWS Config Rules, Security Groups, to name a few.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS provides technical controls, such as encryption features that are designed to protect the confidentiality and integrity of data in-transit and at-rest. The customer is responsible for implementing these integrity controls, policies, and procedures.  As one illustrative example, the customer should consider protecting the integrity of ePHI being transmitted through the use of network communications protocols. The customer should also consider employing additional required file integrity management systems and/or logging tools to detect unauthorized changes to Amazon S3 objects, RDS database objects, as well as files that reside on EC2 instance filesystems, per organizational requirements.
+AWS Management Console sessions, AWS API calls and Amazon S3 object access can only be conducted over TLS. </t>
+  </si>
+  <si>
+    <t>Under HIPAA, encryption of data in transit is "addressable," meaning that it must be implemented when reasonable and appropriate, but a covered entity or business associate may document that it is not reasonable and appropriate, in which case it must implement an alternative equivalent measure if reasonable and appropriate. 
+Although addressable under HIPAA, the customer is required under the AWS Business Associate Addendum (BAA) to encrypt all PHI in-transit or at-rest in order to minimize risk to both the customer and AWS under HIPAA and other laws.
+All AWS Management Console sessions, API call sessions, and Amazon S3 object access can only be conducted over encrypted sessions via TLS.  Provisioned resources such as EC2 instances and associated security groups should be configured for encrypted SSH sessions only, to protect clear text ePHI from being transmitted deliberately (upload/download) or inadvertantly during interactive systems management operations. </t>
+  </si>
+  <si>
+    <t>compliance-hipaa-logging template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compliance-hipaa-logging template
+</t>
+  </si>
+  <si>
+    <t>compliance-hipaa-prod template
+compliance-hipaa-management template
+compliance-hipaa-logging template</t>
+  </si>
+  <si>
+    <t>compliance-hipaa-dev template
+compliance-hipaa-prod template
+compliance-hipaa-management template
+compliance-hipaa-logging template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compliance-hipaa-prod template
+compliance-hipaa-management template
+compliance-hipaa-dev template
+compliance-hipaa-logging template
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compliance-hipaa-logging template
+compliance-hipaa-config template
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compliance-hipaa-logging template
+compliance-hipaa-config template
+</t>
+  </si>
+  <si>
+    <t>The customer is responsible for implementing policies and procedures to ensure that workforce members have appropriate access to ePHI and to prevent workforce members who do not have access to ePHI from obtaining access. This includes controlling which workforce members have credentials for accessing ePHI stored on AWS.
+Customers can configure AWS Services to control workforce access to ePHI stored or processed on AWS by ensuring S3 buckets are encrypted and IAM is configured with baseline access control policies for groups and roles to which authorized users may be assigned by the customer.
+AWS is responsible for controlling physical access to data centers to prevent against unauthorized access to system hardware that contains PHI.  As part of that, AWS has implemented procedures for its workforce members.  If exact details are needed, the AWS SOC2 report can be downloaded in the AWS management console with Artifact. To learn more, go to https://aws.amazon.com/artifact.</t>
+  </si>
+  <si>
+    <t>In this architecture, CloudTrail provides visibility to workforce access and AWS Config is configured to use the HIPAA Conformance pack allowing for continuous monitoring of resources and the ability to automate notification when resources are not configured according to your specified requirements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This architecture incorporates multiple AWS Availability Zones (AZs).  Amazon S3 storage replicates data within a Region by default.  Storing ePHI in Amazon S3 and leveraging multiple AZs are elemental to organizational plans for transfer of, processing, and storage of data to alternate sites.  This architecture enables the customer to leverage built-in alternate storage and processing capabilities that dynamically provides transfer and resumption of system operations in the event of failures due to fire, vandalism, hardware malfunctions, network/power outages, or a small area natural disaster. 
+</t>
+  </si>
+  <si>
+    <t>Implement policies and procedures to limit physical access to [an entity's] electronic information systems and the facility or facilities in which they are housed, while ensuring that properly authorized access is allowed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compliance-hipaa-logging template
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compliance-hipaa-logging template
+</t>
+  </si>
+  <si>
+    <t>Updated quick start templates to reflect AWS best practices and leverage updated services and features</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode=";;;"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3141,68 +2964,128 @@
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Symbol"/>
-      <family val="1"/>
-      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -3210,39 +3093,34 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="14"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3254,20 +3132,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor rgb="FFF79646"/>
+        <bgColor rgb="FFF79646"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor rgb="FFB7DEE8"/>
+        <bgColor rgb="FFB7DEE8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="9"/>
+        <fgColor rgb="FFDBEEF4"/>
+        <bgColor rgb="FFDBEEF4"/>
       </patternFill>
     </fill>
   </fills>
@@ -3280,225 +3158,228 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="76">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="25"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <colors>
-    <mruColors>
-      <color rgb="FF3333FF"/>
-      <color rgb="FFCCFFCC"/>
-      <color rgb="FFFFCCCC"/>
-    </mruColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3514,16 +3395,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1" displayName="Table1" ref="A1:B9" totalsRowShown="0">
   <autoFilter ref="A1:B9"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Topic Areas" dataDxfId="1"/>
-    <tableColumn id="2" name="Comments" dataDxfId="0"/>
+    <tableColumn id="1" name="Topic Areas"/>
+    <tableColumn id="2" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table6" displayName="Table6" ref="A1:B3" totalsRowShown="0">
-  <autoFilter ref="A1:B3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table6" displayName="Table6" ref="A1:B4" totalsRowShown="0">
+  <autoFilter ref="A1:B4"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="Change Log "/>
@@ -3537,10 +3418,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -3578,71 +3459,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Orya" typeface="Kalinga"/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
         <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Orya" typeface="Kalinga"/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
         <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3808,76 +3689,37 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:P17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:I11"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="12.6640625" customWidth="1"/>
+    <col min="1" max="9" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
-        <v>336</v>
-      </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+    <row r="2" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="69" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -3886,7 +3728,7 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -3904,18 +3746,18 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" ht="21" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
-        <v>680</v>
-      </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
+    <row r="4" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="70" t="s">
+        <v>631</v>
+      </c>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="5"/>
@@ -3924,7 +3766,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -3942,18 +3784,18 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="64">
-        <v>42971</v>
-      </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="71">
+        <v>44288</v>
+      </c>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="5"/>
@@ -3962,7 +3804,7 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -3973,37 +3815,37 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:16" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="65" t="s">
-        <v>337</v>
-      </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
+    <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="72" t="s">
+        <v>313</v>
+      </c>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="66" t="s">
-        <v>679</v>
-      </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
+    <row r="9" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="73" t="s">
+        <v>630</v>
+      </c>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -4014,23 +3856,23 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:16" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61" t="s">
-        <v>720</v>
-      </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
+    <row r="11" spans="1:16" ht="154.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="68" t="s">
+        <v>666</v>
+      </c>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="13"/>
     </row>
-    <row r="12" spans="1:16" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -4041,22 +3883,22 @@
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:16" ht="83" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61" t="s">
-        <v>340</v>
-      </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
+    <row r="13" spans="1:16" ht="83.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="68" t="s">
+        <v>316</v>
+      </c>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:16" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -4067,22 +3909,22 @@
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
     </row>
-    <row r="15" spans="1:16" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="s">
-        <v>689</v>
-      </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
+    <row r="15" spans="1:16" ht="135" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="66" t="s">
+        <v>640</v>
+      </c>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
     </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -4093,18 +3935,18 @@
       <c r="H16"/>
       <c r="I16"/>
     </row>
-    <row r="17" spans="1:11" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="60" t="s">
-        <v>696</v>
-      </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
+    <row r="17" spans="1:11" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="67" t="s">
+        <v>645</v>
+      </c>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
     </row>
@@ -4120,87 +3962,89 @@
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A9:I9"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.69124999999999992" right="0.69124999999999992" top="0.74062499999999998" bottom="0.74062499999999998" header="0.29624999999999996" footer="0.29624999999999996"/>
+  <pageSetup orientation="portrait" copies="0"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:H8888"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:H354"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection activeCell="A92" sqref="A92"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="41.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="46.6640625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="57.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="46.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="39.83203125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="33.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="75.75" style="20" customWidth="1"/>
+    <col min="6" max="6" width="48" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="41.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="278.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
-        <v>716</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-    </row>
-    <row r="2" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="186" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="75" t="s">
+        <v>662</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+    </row>
+    <row r="2" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>533</v>
+        <v>506</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>534</v>
+        <v>507</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>527</v>
+        <v>500</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>532</v>
+        <v>505</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>682</v>
+        <v>633</v>
       </c>
       <c r="G2" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="H2" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="H2" s="25" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="C3" s="54" t="s">
-        <v>482</v>
+      <c r="C3" s="51" t="s">
+        <v>456</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>525</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>524</v>
+        <v>498</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>497</v>
       </c>
       <c r="F3" s="32" t="s">
         <v>0</v>
@@ -4212,21 +4056,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="240" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="55" t="s">
-        <v>721</v>
+      <c r="C4" s="52" t="s">
+        <v>667</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>535</v>
+        <v>508</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>0</v>
@@ -4238,7 +4082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>3</v>
       </c>
@@ -4246,13 +4090,13 @@
         <v>147</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>529</v>
+        <v>502</v>
       </c>
       <c r="F5" s="32" t="s">
         <v>0</v>
@@ -4264,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>4</v>
       </c>
@@ -4272,13 +4116,13 @@
         <v>148</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>536</v>
+        <v>509</v>
       </c>
       <c r="F6" s="33" t="s">
         <v>0</v>
@@ -4290,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="180" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>5</v>
       </c>
@@ -4298,13 +4142,13 @@
         <v>229</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>583</v>
+        <v>554</v>
       </c>
       <c r="F7" s="32" t="s">
         <v>0</v>
@@ -4316,21 +4160,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="409" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
+    <row r="8" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>149</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>529</v>
+        <v>502</v>
       </c>
       <c r="F8" s="33" t="s">
         <v>0</v>
@@ -4342,7 +4186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="195" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>7</v>
       </c>
@@ -4350,13 +4194,13 @@
         <v>230</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>529</v>
+        <v>502</v>
       </c>
       <c r="F9" s="32" t="s">
         <v>0</v>
@@ -4368,24 +4212,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="409" x14ac:dyDescent="0.2">
-      <c r="A10" s="45" t="s">
-        <v>704</v>
+    <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>653</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>150</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>693</v>
+        <v>643</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>688</v>
+        <v>639</v>
       </c>
       <c r="G10" s="31" t="s">
         <v>0</v>
@@ -4394,7 +4238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>8</v>
       </c>
@@ -4402,13 +4246,13 @@
         <v>151</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>484</v>
+        <v>458</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>537</v>
+        <v>510</v>
       </c>
       <c r="F11" s="32" t="s">
         <v>0</v>
@@ -4420,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="255" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>9</v>
       </c>
@@ -4428,13 +4272,13 @@
         <v>152</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="F12" s="33" t="s">
         <v>0</v>
@@ -4446,21 +4290,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="180" x14ac:dyDescent="0.2">
-      <c r="A13" s="56" t="s">
+    <row r="13" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="A13" s="53" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="C13" s="54" t="s">
-        <v>485</v>
+      <c r="C13" s="51" t="s">
+        <v>459</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>539</v>
+        <v>512</v>
       </c>
       <c r="F13" s="32" t="s">
         <v>0</v>
@@ -4472,21 +4316,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="225" x14ac:dyDescent="0.2">
-      <c r="A14" s="57" t="s">
-        <v>722</v>
+    <row r="14" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+      <c r="A14" s="54" t="s">
+        <v>668</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>154</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>540</v>
+        <v>513</v>
       </c>
       <c r="F14" s="33" t="s">
         <v>0</v>
@@ -4498,21 +4342,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="409" x14ac:dyDescent="0.2">
-      <c r="A15" s="56" t="s">
-        <v>725</v>
+    <row r="15" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="53" t="s">
+        <v>671</v>
       </c>
       <c r="B15" s="26" t="s">
         <v>155</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>487</v>
+        <v>461</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>528</v>
+        <v>501</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>0</v>
@@ -4524,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>11</v>
       </c>
@@ -4532,13 +4376,13 @@
         <v>231</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>528</v>
+        <v>501</v>
       </c>
       <c r="F16" s="33" t="s">
         <v>0</v>
@@ -4550,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>12</v>
       </c>
@@ -4558,13 +4402,13 @@
         <v>156</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>528</v>
+        <v>501</v>
       </c>
       <c r="F17" s="32" t="s">
         <v>0</v>
@@ -4576,21 +4420,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="409" x14ac:dyDescent="0.2">
-      <c r="A18" s="57" t="s">
-        <v>724</v>
+    <row r="18" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="54" t="s">
+        <v>670</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>157</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>528</v>
+        <v>501</v>
       </c>
       <c r="F18" s="33" t="s">
         <v>0</v>
@@ -4602,21 +4446,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="409" x14ac:dyDescent="0.2">
-      <c r="A19" s="56" t="s">
-        <v>743</v>
+    <row r="19" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="53" t="s">
+        <v>689</v>
       </c>
       <c r="B19" s="26" t="s">
         <v>158</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>541</v>
+        <v>514</v>
       </c>
       <c r="F19" s="32" t="s">
         <v>0</v>
@@ -4628,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="315" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>13</v>
       </c>
@@ -4636,13 +4480,13 @@
         <v>159</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>541</v>
+        <v>514</v>
       </c>
       <c r="F20" s="33" t="s">
         <v>0</v>
@@ -4654,21 +4498,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="390" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="405" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="C21" s="46" t="s">
-        <v>581</v>
+      <c r="C21" s="43" t="s">
+        <v>552</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>542</v>
+        <v>515</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>0</v>
@@ -4680,7 +4524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>15</v>
       </c>
@@ -4688,13 +4532,13 @@
         <v>160</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>543</v>
+        <v>516</v>
       </c>
       <c r="F22" s="33" t="s">
         <v>0</v>
@@ -4706,7 +4550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="330" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>16</v>
       </c>
@@ -4714,13 +4558,13 @@
         <v>161</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>582</v>
+        <v>553</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>542</v>
+        <v>515</v>
       </c>
       <c r="F23" s="32" t="s">
         <v>0</v>
@@ -4732,7 +4576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="255" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>17</v>
       </c>
@@ -4740,13 +4584,13 @@
         <v>162</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>544</v>
+        <v>517</v>
       </c>
       <c r="F24" s="33" t="s">
         <v>0</v>
@@ -4758,7 +4602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="210" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>18</v>
       </c>
@@ -4766,13 +4610,13 @@
         <v>163</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>545</v>
+        <v>518</v>
       </c>
       <c r="F25" s="32" t="s">
         <v>0</v>
@@ -4784,7 +4628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="150" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>19</v>
       </c>
@@ -4792,13 +4636,13 @@
         <v>164</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>481</v>
+        <v>455</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>546</v>
+        <v>519</v>
       </c>
       <c r="F26" s="33" t="s">
         <v>0</v>
@@ -4810,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>20</v>
       </c>
@@ -4818,13 +4662,13 @@
         <v>165</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>586</v>
+        <v>557</v>
       </c>
       <c r="F27" s="32" t="s">
         <v>0</v>
@@ -4836,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>21</v>
       </c>
@@ -4844,13 +4688,13 @@
         <v>166</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>585</v>
+        <v>556</v>
       </c>
       <c r="F28" s="33" t="s">
         <v>0</v>
@@ -4862,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>22</v>
       </c>
@@ -4870,13 +4714,13 @@
         <v>167</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>584</v>
+        <v>555</v>
       </c>
       <c r="F29" s="32" t="s">
         <v>0</v>
@@ -4888,7 +4732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
         <v>23</v>
       </c>
@@ -4896,13 +4740,13 @@
         <v>168</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>547</v>
+        <v>520</v>
       </c>
       <c r="F30" s="33" t="s">
         <v>0</v>
@@ -4914,7 +4758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>24</v>
       </c>
@@ -4922,13 +4766,13 @@
         <v>169</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>548</v>
+        <v>521</v>
       </c>
       <c r="F31" s="32" t="s">
         <v>0</v>
@@ -4940,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>25</v>
       </c>
@@ -4948,13 +4792,13 @@
         <v>232</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>548</v>
+        <v>521</v>
       </c>
       <c r="F32" s="33" t="s">
         <v>0</v>
@@ -4966,7 +4810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>26</v>
       </c>
@@ -4974,13 +4818,13 @@
         <v>233</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>548</v>
+        <v>521</v>
       </c>
       <c r="F33" s="32" t="s">
         <v>0</v>
@@ -4992,7 +4836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
         <v>27</v>
       </c>
@@ -5000,13 +4844,13 @@
         <v>234</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>548</v>
+        <v>521</v>
       </c>
       <c r="F34" s="33" t="s">
         <v>0</v>
@@ -5018,7 +4862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>28</v>
       </c>
@@ -5026,13 +4870,13 @@
         <v>170</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>548</v>
+        <v>521</v>
       </c>
       <c r="F35" s="32" t="s">
         <v>0</v>
@@ -5044,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="330" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
         <v>29</v>
       </c>
@@ -5052,13 +4896,13 @@
         <v>169</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>548</v>
+        <v>521</v>
       </c>
       <c r="F36" s="33" t="s">
         <v>0</v>
@@ -5070,7 +4914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="345" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>30</v>
       </c>
@@ -5078,13 +4922,13 @@
         <v>171</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>549</v>
+        <v>522</v>
       </c>
       <c r="F37" s="32" t="s">
         <v>0</v>
@@ -5096,7 +4940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="135" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
         <v>31</v>
       </c>
@@ -5104,13 +4948,13 @@
         <v>172</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>587</v>
+        <v>558</v>
       </c>
       <c r="F38" s="33" t="s">
         <v>0</v>
@@ -5122,21 +4966,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>32</v>
       </c>
       <c r="B39" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="C39" s="54" t="s">
-        <v>723</v>
+      <c r="C39" s="51" t="s">
+        <v>669</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>550</v>
+        <v>523</v>
       </c>
       <c r="F39" s="32" t="s">
         <v>0</v>
@@ -5148,7 +4992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
         <v>33</v>
       </c>
@@ -5156,13 +5000,13 @@
         <v>236</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>551</v>
+        <v>524</v>
       </c>
       <c r="F40" s="33" t="s">
         <v>0</v>
@@ -5174,7 +5018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>34</v>
       </c>
@@ -5182,14 +5026,14 @@
         <v>237</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="D41" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="E41" s="28" t="s">
         <v>525</v>
       </c>
-      <c r="E41" s="28" t="s">
-        <v>552</v>
-      </c>
       <c r="F41" s="32" t="s">
         <v>0</v>
       </c>
@@ -5200,7 +5044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="150" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
         <v>35</v>
       </c>
@@ -5208,13 +5052,13 @@
         <v>238</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>525</v>
-      </c>
-      <c r="E42" s="55" t="s">
-        <v>553</v>
+        <v>498</v>
+      </c>
+      <c r="E42" s="52" t="s">
+        <v>526</v>
       </c>
       <c r="F42" s="33" t="s">
         <v>0</v>
@@ -5226,7 +5070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="135" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
         <v>36</v>
       </c>
@@ -5234,13 +5078,13 @@
         <v>239</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>588</v>
+        <v>559</v>
       </c>
       <c r="F43" s="32" t="s">
         <v>0</v>
@@ -5252,7 +5096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="300" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
         <v>37</v>
       </c>
@@ -5260,13 +5104,13 @@
         <v>240</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>589</v>
+        <v>560</v>
       </c>
       <c r="F44" s="33" t="s">
         <v>0</v>
@@ -5278,7 +5122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
         <v>38</v>
       </c>
@@ -5286,13 +5130,13 @@
         <v>173</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>554</v>
+        <v>527</v>
       </c>
       <c r="F45" s="32" t="s">
         <v>0</v>
@@ -5304,7 +5148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A46" s="27" t="s">
         <v>39</v>
       </c>
@@ -5315,10 +5159,10 @@
         <v>304</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>555</v>
+        <v>528</v>
       </c>
       <c r="F46" s="33" t="s">
         <v>0</v>
@@ -5330,7 +5174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
         <v>40</v>
       </c>
@@ -5338,13 +5182,13 @@
         <v>241</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>590</v>
+        <v>561</v>
       </c>
       <c r="F47" s="32" t="s">
         <v>0</v>
@@ -5356,21 +5200,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="409" x14ac:dyDescent="0.2">
-      <c r="A48" s="57" t="s">
-        <v>742</v>
+    <row r="48" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="54" t="s">
+        <v>688</v>
       </c>
       <c r="B48" s="27" t="s">
         <v>175</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>556</v>
+        <v>529</v>
       </c>
       <c r="F48" s="33" t="s">
         <v>0</v>
@@ -5382,21 +5226,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="409" x14ac:dyDescent="0.2">
-      <c r="A49" s="56" t="s">
-        <v>740</v>
+    <row r="49" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="53" t="s">
+        <v>686</v>
       </c>
       <c r="B49" s="26" t="s">
         <v>176</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>488</v>
+        <v>462</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>557</v>
+        <v>530</v>
       </c>
       <c r="F49" s="32" t="s">
         <v>0</v>
@@ -5408,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
         <v>41</v>
       </c>
@@ -5416,13 +5260,13 @@
         <v>242</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>489</v>
+        <v>463</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>558</v>
+        <v>531</v>
       </c>
       <c r="F50" s="33" t="s">
         <v>0</v>
@@ -5434,7 +5278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="375" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="390" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
         <v>42</v>
       </c>
@@ -5442,13 +5286,13 @@
         <v>177</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>559</v>
+        <v>532</v>
       </c>
       <c r="F51" s="32" t="s">
         <v>0</v>
@@ -5460,7 +5304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="150" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
         <v>43</v>
       </c>
@@ -5468,13 +5312,13 @@
         <v>243</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>560</v>
+        <v>533</v>
       </c>
       <c r="F52" s="33" t="s">
         <v>0</v>
@@ -5486,7 +5330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
         <v>44</v>
       </c>
@@ -5494,13 +5338,13 @@
         <v>244</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>684</v>
+        <v>635</v>
       </c>
       <c r="F53" s="32" t="s">
         <v>0</v>
@@ -5512,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A54" s="27" t="s">
         <v>45</v>
       </c>
@@ -5520,13 +5364,13 @@
         <v>245</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>490</v>
+        <v>464</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E54" s="29" t="s">
-        <v>561</v>
+        <v>534</v>
       </c>
       <c r="F54" s="33" t="s">
         <v>0</v>
@@ -5538,7 +5382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>46</v>
       </c>
@@ -5546,13 +5390,13 @@
         <v>178</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>491</v>
+        <v>465</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>524</v>
+        <v>497</v>
       </c>
       <c r="F55" s="32" t="s">
         <v>0</v>
@@ -5564,7 +5408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A56" s="27" t="s">
         <v>47</v>
       </c>
@@ -5572,13 +5416,13 @@
         <v>246</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E56" s="29" t="s">
-        <v>562</v>
+        <v>535</v>
       </c>
       <c r="F56" s="33" t="s">
         <v>0</v>
@@ -5590,21 +5434,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="409" x14ac:dyDescent="0.2">
-      <c r="A57" s="56" t="s">
-        <v>741</v>
+    <row r="57" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="53" t="s">
+        <v>687</v>
       </c>
       <c r="B57" s="26" t="s">
         <v>247</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>492</v>
+        <v>466</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>591</v>
+        <v>562</v>
       </c>
       <c r="F57" s="32" t="s">
         <v>0</v>
@@ -5616,7 +5460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A58" s="27" t="s">
         <v>48</v>
       </c>
@@ -5624,13 +5468,13 @@
         <v>248</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>592</v>
+        <v>563</v>
       </c>
       <c r="F58" s="33" t="s">
         <v>0</v>
@@ -5642,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
         <v>49</v>
       </c>
@@ -5650,13 +5494,13 @@
         <v>249</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>592</v>
+        <v>563</v>
       </c>
       <c r="F59" s="32" t="s">
         <v>0</v>
@@ -5668,7 +5512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A60" s="27" t="s">
         <v>50</v>
       </c>
@@ -5676,13 +5520,13 @@
         <v>250</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="D60" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>593</v>
+        <v>564</v>
       </c>
       <c r="F60" s="33" t="s">
         <v>0</v>
@@ -5694,7 +5538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
         <v>51</v>
       </c>
@@ -5702,13 +5546,13 @@
         <v>179</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E61" s="28" t="s">
-        <v>592</v>
+        <v>563</v>
       </c>
       <c r="F61" s="32" t="s">
         <v>0</v>
@@ -5720,7 +5564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="150" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A62" s="27" t="s">
         <v>52</v>
       </c>
@@ -5728,13 +5572,13 @@
         <v>180</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="D62" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>594</v>
+        <v>565</v>
       </c>
       <c r="F62" s="33" t="s">
         <v>0</v>
@@ -5746,7 +5590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A63" s="26" t="s">
         <v>53</v>
       </c>
@@ -5754,13 +5598,13 @@
         <v>251</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>717</v>
+        <v>663</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>595</v>
+        <v>566</v>
       </c>
       <c r="F63" s="32" t="s">
         <v>0</v>
@@ -5772,7 +5616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="255" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
         <v>54</v>
       </c>
@@ -5780,13 +5624,13 @@
         <v>252</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>596</v>
+        <v>567</v>
       </c>
       <c r="D64" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E64" s="29" t="s">
-        <v>597</v>
+        <v>568</v>
       </c>
       <c r="F64" s="33" t="s">
         <v>0</v>
@@ -5798,7 +5642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="26" t="s">
         <v>55</v>
       </c>
@@ -5806,13 +5650,13 @@
         <v>180</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>493</v>
+        <v>467</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E65" s="28" t="s">
-        <v>598</v>
+        <v>569</v>
       </c>
       <c r="F65" s="32" t="s">
         <v>0</v>
@@ -5824,7 +5668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="270" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A66" s="27" t="s">
         <v>56</v>
       </c>
@@ -5832,13 +5676,13 @@
         <v>181</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="D66" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E66" s="29" t="s">
-        <v>599</v>
+        <v>570</v>
       </c>
       <c r="F66" s="33" t="s">
         <v>0</v>
@@ -5850,21 +5694,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="409" x14ac:dyDescent="0.2">
-      <c r="A67" s="56" t="s">
-        <v>727</v>
+    <row r="67" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="53" t="s">
+        <v>673</v>
       </c>
       <c r="B67" s="26" t="s">
         <v>182</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>563</v>
+        <v>536</v>
       </c>
       <c r="F67" s="32" t="s">
         <v>0</v>
@@ -5876,21 +5720,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="B68" s="27" t="s">
         <v>183</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="D68" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>602</v>
+        <v>573</v>
       </c>
       <c r="F68" s="33" t="s">
         <v>0</v>
@@ -5902,7 +5746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A69" s="26" t="s">
         <v>57</v>
       </c>
@@ -5910,13 +5754,13 @@
         <v>184</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E69" s="28" t="s">
-        <v>603</v>
+        <v>574</v>
       </c>
       <c r="F69" s="32" t="s">
         <v>0</v>
@@ -5928,7 +5772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A70" s="27" t="s">
         <v>58</v>
       </c>
@@ -5936,13 +5780,13 @@
         <v>185</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>603</v>
+        <v>574</v>
       </c>
       <c r="F70" s="33" t="s">
         <v>0</v>
@@ -5954,21 +5798,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="409" x14ac:dyDescent="0.2">
-      <c r="A71" s="56" t="s">
-        <v>726</v>
+    <row r="71" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="53" t="s">
+        <v>672</v>
       </c>
       <c r="B71" s="26" t="s">
         <v>186</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>603</v>
+        <v>574</v>
       </c>
       <c r="F71" s="32" t="s">
         <v>0</v>
@@ -5980,7 +5824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A72" s="27" t="s">
         <v>59</v>
       </c>
@@ -5988,13 +5832,13 @@
         <v>180</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="D72" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>603</v>
+        <v>574</v>
       </c>
       <c r="F72" s="33" t="s">
         <v>0</v>
@@ -6006,7 +5850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="105" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A73" s="26" t="s">
         <v>60</v>
       </c>
@@ -6014,13 +5858,13 @@
         <v>253</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E73" s="28" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
       <c r="F73" s="32" t="s">
         <v>0</v>
@@ -6032,7 +5876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="195" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A74" s="27" t="s">
         <v>61</v>
       </c>
@@ -6040,13 +5884,13 @@
         <v>187</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="D74" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>604</v>
+        <v>575</v>
       </c>
       <c r="F74" s="33" t="s">
         <v>0</v>
@@ -6058,7 +5902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A75" s="26" t="s">
         <v>62</v>
       </c>
@@ -6066,13 +5910,13 @@
         <v>188</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E75" s="28" t="s">
-        <v>605</v>
+        <v>576</v>
       </c>
       <c r="F75" s="32" t="s">
         <v>0</v>
@@ -6084,7 +5928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A76" s="27" t="s">
         <v>63</v>
       </c>
@@ -6092,13 +5936,13 @@
         <v>187</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>606</v>
+        <v>577</v>
       </c>
       <c r="D76" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E76" s="29" t="s">
-        <v>565</v>
+        <v>538</v>
       </c>
       <c r="F76" s="33" t="s">
         <v>0</v>
@@ -6110,7 +5954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A77" s="26" t="s">
         <v>64</v>
       </c>
@@ -6118,13 +5962,13 @@
         <v>254</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>494</v>
+        <v>468</v>
       </c>
       <c r="D77" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E77" s="28" t="s">
-        <v>566</v>
+        <v>539</v>
       </c>
       <c r="F77" s="32" t="s">
         <v>0</v>
@@ -6136,7 +5980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A78" s="27" t="s">
         <v>65</v>
       </c>
@@ -6144,13 +5988,13 @@
         <v>189</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>718</v>
+        <v>664</v>
       </c>
       <c r="D78" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E78" s="29" t="s">
-        <v>567</v>
+        <v>540</v>
       </c>
       <c r="F78" s="33" t="s">
         <v>0</v>
@@ -6162,7 +6006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A79" s="26" t="s">
         <v>66</v>
       </c>
@@ -6170,13 +6014,13 @@
         <v>255</v>
       </c>
       <c r="C79" s="28" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E79" s="28" t="s">
-        <v>568</v>
+        <v>541</v>
       </c>
       <c r="F79" s="32" t="s">
         <v>0</v>
@@ -6188,7 +6032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="240" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A80" s="27" t="s">
         <v>67</v>
       </c>
@@ -6196,13 +6040,13 @@
         <v>180</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="D80" s="31" t="s">
-        <v>525</v>
-      </c>
-      <c r="E80" s="55" t="s">
-        <v>566</v>
+        <v>498</v>
+      </c>
+      <c r="E80" s="52" t="s">
+        <v>539</v>
       </c>
       <c r="F80" s="33" t="s">
         <v>0</v>
@@ -6214,7 +6058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="225" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A81" s="26" t="s">
         <v>68</v>
       </c>
@@ -6222,13 +6066,13 @@
         <v>190</v>
       </c>
       <c r="C81" s="28" t="s">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E81" s="28" t="s">
-        <v>608</v>
+        <v>579</v>
       </c>
       <c r="F81" s="32" t="s">
         <v>0</v>
@@ -6240,7 +6084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A82" s="27" t="s">
         <v>69</v>
       </c>
@@ -6248,13 +6092,13 @@
         <v>191</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="D82" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>607</v>
+        <v>578</v>
       </c>
       <c r="F82" s="33" t="s">
         <v>0</v>
@@ -6266,7 +6110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="240" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A83" s="26" t="s">
         <v>70</v>
       </c>
@@ -6274,13 +6118,13 @@
         <v>192</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E83" s="28" t="s">
-        <v>609</v>
+        <v>580</v>
       </c>
       <c r="F83" s="32" t="s">
         <v>0</v>
@@ -6292,7 +6136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A84" s="27" t="s">
         <v>71</v>
       </c>
@@ -6300,13 +6144,13 @@
         <v>193</v>
       </c>
       <c r="C84" s="29" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="D84" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>613</v>
+        <v>584</v>
       </c>
       <c r="F84" s="33" t="s">
         <v>0</v>
@@ -6318,7 +6162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="90" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
         <v>72</v>
       </c>
@@ -6326,13 +6170,13 @@
         <v>193</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E85" s="28" t="s">
-        <v>613</v>
+        <v>584</v>
       </c>
       <c r="F85" s="32" t="s">
         <v>0</v>
@@ -6344,7 +6188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="210" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A86" s="27" t="s">
         <v>73</v>
       </c>
@@ -6352,13 +6196,13 @@
         <v>194</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>496</v>
+        <v>470</v>
       </c>
       <c r="D86" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E86" s="29" t="s">
-        <v>612</v>
+        <v>583</v>
       </c>
       <c r="F86" s="33" t="s">
         <v>0</v>
@@ -6370,7 +6214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
         <v>74</v>
       </c>
@@ -6378,13 +6222,13 @@
         <v>195</v>
       </c>
       <c r="C87" s="28" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E87" s="28" t="s">
-        <v>569</v>
+        <v>542</v>
       </c>
       <c r="F87" s="32" t="s">
         <v>0</v>
@@ -6396,7 +6240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="165" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A88" s="27" t="s">
         <v>75</v>
       </c>
@@ -6404,13 +6248,13 @@
         <v>196</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="D88" s="31" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E88" s="29" t="s">
-        <v>611</v>
+        <v>582</v>
       </c>
       <c r="F88" s="33" t="s">
         <v>0</v>
@@ -6422,7 +6266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="105" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
         <v>76</v>
       </c>
@@ -6430,13 +6274,13 @@
         <v>256</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E89" s="28" t="s">
-        <v>610</v>
+        <v>581</v>
       </c>
       <c r="F89" s="32" t="s">
         <v>0</v>
@@ -6448,7 +6292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A90" s="27" t="s">
         <v>77</v>
       </c>
@@ -6456,13 +6300,13 @@
         <v>197</v>
       </c>
       <c r="C90" s="29" t="s">
+        <v>472</v>
+      </c>
+      <c r="D90" s="31" t="s">
         <v>498</v>
       </c>
-      <c r="D90" s="31" t="s">
-        <v>525</v>
-      </c>
       <c r="E90" s="29" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="F90" s="33" t="s">
         <v>0</v>
@@ -6474,7 +6318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="285" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
         <v>78</v>
       </c>
@@ -6482,13 +6326,13 @@
         <v>180</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E91" s="28" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="F91" s="32" t="s">
         <v>0</v>
@@ -6500,7 +6344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A92" s="27" t="s">
         <v>79</v>
       </c>
@@ -6508,16 +6352,16 @@
         <v>198</v>
       </c>
       <c r="C92" s="29" t="s">
-        <v>664</v>
+        <v>617</v>
       </c>
       <c r="D92" s="31" t="s">
-        <v>526</v>
-      </c>
-      <c r="E92" s="29" t="s">
-        <v>695</v>
-      </c>
-      <c r="F92" s="29" t="s">
-        <v>690</v>
+        <v>499</v>
+      </c>
+      <c r="E92" s="61" t="s">
+        <v>701</v>
+      </c>
+      <c r="F92" s="64" t="s">
+        <v>0</v>
       </c>
       <c r="G92" s="31" t="s">
         <v>0</v>
@@ -6526,7 +6370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="255" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
         <v>80</v>
       </c>
@@ -6534,13 +6378,13 @@
         <v>199</v>
       </c>
       <c r="C93" s="28" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="D93" s="30" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E93" s="28" t="s">
-        <v>666</v>
+        <v>618</v>
       </c>
       <c r="F93" s="32" t="s">
         <v>0</v>
@@ -6552,33 +6396,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="165" x14ac:dyDescent="0.2">
-      <c r="A94" s="57" t="s">
+    <row r="94" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A94" s="54" t="s">
         <v>81</v>
       </c>
       <c r="B94" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="C94" s="55" t="s">
-        <v>728</v>
+      <c r="C94" s="52" t="s">
+        <v>674</v>
       </c>
       <c r="D94" s="31" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E94" s="29" t="s">
-        <v>667</v>
-      </c>
-      <c r="F94" s="49" t="s">
-        <v>670</v>
-      </c>
-      <c r="G94" s="29" t="s">
-        <v>308</v>
-      </c>
-      <c r="H94" s="29" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="315" x14ac:dyDescent="0.2">
+        <v>619</v>
+      </c>
+      <c r="F94" s="46" t="s">
+        <v>621</v>
+      </c>
+      <c r="G94" s="61" t="s">
+        <v>702</v>
+      </c>
+      <c r="H94" s="61" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
         <v>82</v>
       </c>
@@ -6586,16 +6430,16 @@
         <v>258</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="D95" s="30" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E95" s="28" t="s">
-        <v>626</v>
+        <v>592</v>
       </c>
       <c r="F95" s="28" t="s">
-        <v>686</v>
+        <v>637</v>
       </c>
       <c r="G95" s="30" t="s">
         <v>0</v>
@@ -6604,7 +6448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="225" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A96" s="27" t="s">
         <v>83</v>
       </c>
@@ -6612,16 +6456,16 @@
         <v>259</v>
       </c>
       <c r="C96" s="29" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="D96" s="31" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E96" s="29" t="s">
-        <v>627</v>
+        <v>593</v>
       </c>
       <c r="F96" s="29" t="s">
-        <v>668</v>
+        <v>620</v>
       </c>
       <c r="G96" s="31" t="s">
         <v>0</v>
@@ -6630,7 +6474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
         <v>84</v>
       </c>
@@ -6638,13 +6482,13 @@
         <v>200</v>
       </c>
       <c r="C97" s="28" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="D97" s="30" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E97" s="28" t="s">
-        <v>570</v>
+        <v>543</v>
       </c>
       <c r="F97" s="32" t="s">
         <v>0</v>
@@ -6656,7 +6500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A98" s="27" t="s">
         <v>85</v>
       </c>
@@ -6664,25 +6508,25 @@
         <v>260</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="D98" s="31" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E98" s="29" t="s">
-        <v>511</v>
-      </c>
-      <c r="F98" s="29" t="s">
-        <v>669</v>
-      </c>
-      <c r="G98" s="29" t="s">
-        <v>310</v>
-      </c>
-      <c r="H98" s="29" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="75" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+      <c r="F98" s="59" t="s">
+        <v>699</v>
+      </c>
+      <c r="G98" s="59" t="s">
+        <v>700</v>
+      </c>
+      <c r="H98" s="59" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
         <v>86</v>
       </c>
@@ -6690,13 +6534,13 @@
         <v>201</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E99" s="28" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="F99" s="32" t="s">
         <v>0</v>
@@ -6708,7 +6552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="210" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A100" s="27" t="s">
         <v>87</v>
       </c>
@@ -6716,25 +6560,25 @@
         <v>202</v>
       </c>
       <c r="C100" s="29" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="D100" s="31" t="s">
-        <v>526</v>
-      </c>
-      <c r="E100" s="52" t="s">
-        <v>715</v>
-      </c>
-      <c r="F100" s="29" t="s">
-        <v>629</v>
-      </c>
-      <c r="G100" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="H100" s="29" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="75" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+      <c r="E100" s="61" t="s">
+        <v>725</v>
+      </c>
+      <c r="F100" s="61" t="s">
+        <v>726</v>
+      </c>
+      <c r="G100" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="H100" s="61" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
         <v>88</v>
       </c>
@@ -6742,13 +6586,13 @@
         <v>261</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E101" s="28" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="F101" s="32" t="s">
         <v>0</v>
@@ -6760,7 +6604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A102" s="27" t="s">
         <v>89</v>
       </c>
@@ -6768,13 +6612,13 @@
         <v>262</v>
       </c>
       <c r="C102" s="29" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="D102" s="31" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E102" s="29" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="F102" s="33" t="s">
         <v>0</v>
@@ -6786,7 +6630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="105" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
         <v>90</v>
       </c>
@@ -6794,13 +6638,13 @@
         <v>263</v>
       </c>
       <c r="C103" s="28" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E103" s="28" t="s">
-        <v>571</v>
+        <v>544</v>
       </c>
       <c r="F103" s="32" t="s">
         <v>0</v>
@@ -6812,7 +6656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A104" s="27" t="s">
         <v>91</v>
       </c>
@@ -6820,13 +6664,13 @@
         <v>203</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="D104" s="31" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E104" s="29" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="F104" s="33" t="s">
         <v>0</v>
@@ -6838,7 +6682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="90" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A105" s="26" t="s">
         <v>92</v>
       </c>
@@ -6846,13 +6690,13 @@
         <v>264</v>
       </c>
       <c r="C105" s="28" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="D105" s="30" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E105" s="28" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="F105" s="32" t="s">
         <v>0</v>
@@ -6864,7 +6708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A106" s="27" t="s">
         <v>93</v>
       </c>
@@ -6872,13 +6716,13 @@
         <v>265</v>
       </c>
       <c r="C106" s="29" t="s">
-        <v>572</v>
+        <v>545</v>
       </c>
       <c r="D106" s="31" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E106" s="29" t="s">
-        <v>573</v>
+        <v>546</v>
       </c>
       <c r="F106" s="33" t="s">
         <v>0</v>
@@ -6890,7 +6734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="90" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A107" s="26" t="s">
         <v>94</v>
       </c>
@@ -6898,13 +6742,13 @@
         <v>266</v>
       </c>
       <c r="C107" s="28" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="D107" s="30" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E107" s="28" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="F107" s="32" t="s">
         <v>0</v>
@@ -6916,7 +6760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="27" t="s">
         <v>95</v>
       </c>
@@ -6924,13 +6768,13 @@
         <v>267</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E108" s="29" t="s">
-        <v>614</v>
+        <v>585</v>
       </c>
       <c r="F108" s="33" t="s">
         <v>0</v>
@@ -6942,7 +6786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="90" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A109" s="26" t="s">
         <v>96</v>
       </c>
@@ -6950,13 +6794,13 @@
         <v>268</v>
       </c>
       <c r="C109" s="28" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="D109" s="30" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E109" s="28" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="F109" s="32" t="s">
         <v>0</v>
@@ -6968,7 +6812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="90" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A110" s="27" t="s">
         <v>97</v>
       </c>
@@ -6976,13 +6820,13 @@
         <v>269</v>
       </c>
       <c r="C110" s="29" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="D110" s="31" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E110" s="29" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="F110" s="33" t="s">
         <v>0</v>
@@ -6994,7 +6838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A111" s="26" t="s">
         <v>98</v>
       </c>
@@ -7002,25 +6846,25 @@
         <v>270</v>
       </c>
       <c r="C111" s="28" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="D111" s="30" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E111" s="28" t="s">
-        <v>575</v>
+        <v>548</v>
       </c>
       <c r="F111" s="28" t="s">
-        <v>672</v>
-      </c>
-      <c r="G111" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="H111" s="28" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="225" x14ac:dyDescent="0.2">
+        <v>623</v>
+      </c>
+      <c r="G111" s="60" t="s">
+        <v>307</v>
+      </c>
+      <c r="H111" s="63" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A112" s="27" t="s">
         <v>99</v>
       </c>
@@ -7028,16 +6872,16 @@
         <v>271</v>
       </c>
       <c r="C112" s="29" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="D112" s="31" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E112" s="29" t="s">
-        <v>628</v>
+        <v>594</v>
       </c>
       <c r="F112" s="29" t="s">
-        <v>671</v>
+        <v>622</v>
       </c>
       <c r="G112" s="31" t="s">
         <v>0</v>
@@ -7046,7 +6890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A113" s="26" t="s">
         <v>100</v>
       </c>
@@ -7054,25 +6898,25 @@
         <v>272</v>
       </c>
       <c r="C113" s="28" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="D113" s="30" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E113" s="28" t="s">
-        <v>512</v>
+        <v>486</v>
       </c>
       <c r="F113" s="28" t="s">
-        <v>674</v>
+        <v>625</v>
       </c>
       <c r="G113" s="35" t="s">
-        <v>314</v>
-      </c>
-      <c r="H113" s="28" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+      <c r="H113" s="60" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A114" s="27" t="s">
         <v>101</v>
       </c>
@@ -7080,25 +6924,25 @@
         <v>273</v>
       </c>
       <c r="C114" s="29" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="D114" s="31" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E114" s="29" t="s">
-        <v>615</v>
-      </c>
-      <c r="F114" s="49" t="s">
-        <v>673</v>
+        <v>586</v>
+      </c>
+      <c r="F114" s="46" t="s">
+        <v>624</v>
       </c>
       <c r="G114" s="36" t="s">
-        <v>314</v>
-      </c>
-      <c r="H114" s="29" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="315" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+      <c r="H114" s="59" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A115" s="26" t="s">
         <v>102</v>
       </c>
@@ -7106,25 +6950,25 @@
         <v>274</v>
       </c>
       <c r="C115" s="28" t="s">
-        <v>576</v>
+        <v>549</v>
       </c>
       <c r="D115" s="30" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E115" s="28" t="s">
-        <v>617</v>
-      </c>
-      <c r="F115" s="28" t="s">
-        <v>616</v>
-      </c>
-      <c r="G115" s="35" t="s">
-        <v>316</v>
-      </c>
-      <c r="H115" s="28" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="330" x14ac:dyDescent="0.2">
+        <v>587</v>
+      </c>
+      <c r="F115" s="63" t="s">
+        <v>727</v>
+      </c>
+      <c r="G115" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="H115" s="63" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A116" s="27" t="s">
         <v>103</v>
       </c>
@@ -7132,25 +6976,25 @@
         <v>204</v>
       </c>
       <c r="C116" s="29" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="D116" s="31" t="s">
-        <v>526</v>
-      </c>
-      <c r="E116" s="29" t="s">
-        <v>618</v>
-      </c>
-      <c r="F116" s="29" t="s">
-        <v>619</v>
-      </c>
-      <c r="G116" s="37" t="s">
-        <v>318</v>
-      </c>
-      <c r="H116" s="29" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="195" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+      <c r="E116" s="61" t="s">
+        <v>705</v>
+      </c>
+      <c r="F116" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="G116" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="H116" s="64" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="283.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="26" t="s">
         <v>104</v>
       </c>
@@ -7158,25 +7002,25 @@
         <v>205</v>
       </c>
       <c r="C117" s="28" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="D117" s="30" t="s">
-        <v>526</v>
-      </c>
-      <c r="E117" s="28" t="s">
-        <v>620</v>
-      </c>
-      <c r="F117" s="28" t="s">
-        <v>621</v>
-      </c>
-      <c r="G117" s="38" t="s">
-        <v>320</v>
-      </c>
-      <c r="H117" s="28" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+      <c r="E117" s="63" t="s">
+        <v>706</v>
+      </c>
+      <c r="F117" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="G117" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="H117" s="65" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A118" s="27" t="s">
         <v>105</v>
       </c>
@@ -7184,25 +7028,25 @@
         <v>275</v>
       </c>
       <c r="C118" s="29" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="D118" s="31" t="s">
-        <v>526</v>
-      </c>
-      <c r="E118" s="29" t="s">
-        <v>577</v>
-      </c>
-      <c r="F118" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="G118" s="37" t="s">
-        <v>321</v>
-      </c>
-      <c r="H118" s="29" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+      <c r="E118" s="61" t="s">
+        <v>704</v>
+      </c>
+      <c r="F118" s="61" t="s">
+        <v>707</v>
+      </c>
+      <c r="G118" s="62" t="s">
+        <v>703</v>
+      </c>
+      <c r="H118" s="61" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A119" s="26" t="s">
         <v>106</v>
       </c>
@@ -7210,13 +7054,13 @@
         <v>276</v>
       </c>
       <c r="C119" s="28" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="D119" s="30" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E119" s="28" t="s">
-        <v>622</v>
+        <v>588</v>
       </c>
       <c r="F119" s="32" t="s">
         <v>0</v>
@@ -7228,7 +7072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="90" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A120" s="27" t="s">
         <v>103</v>
       </c>
@@ -7236,13 +7080,13 @@
         <v>277</v>
       </c>
       <c r="C120" s="29" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="D120" s="31" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E120" s="29" t="s">
-        <v>623</v>
+        <v>589</v>
       </c>
       <c r="F120" s="33" t="s">
         <v>0</v>
@@ -7254,21 +7098,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="165" x14ac:dyDescent="0.2">
-      <c r="A121" s="56" t="s">
-        <v>601</v>
+    <row r="121" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A121" s="53" t="s">
+        <v>572</v>
       </c>
       <c r="B121" s="26" t="s">
         <v>206</v>
       </c>
       <c r="C121" s="28" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="D121" s="30" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E121" s="28" t="s">
-        <v>624</v>
+        <v>590</v>
       </c>
       <c r="F121" s="32" t="s">
         <v>0</v>
@@ -7280,7 +7124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="315" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A122" s="27" t="s">
         <v>107</v>
       </c>
@@ -7288,16 +7132,16 @@
         <v>207</v>
       </c>
       <c r="C122" s="29" t="s">
-        <v>648</v>
+        <v>601</v>
       </c>
       <c r="D122" s="31" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E122" s="29" t="s">
-        <v>685</v>
+        <v>636</v>
       </c>
       <c r="F122" s="29" t="s">
-        <v>694</v>
+        <v>644</v>
       </c>
       <c r="G122" s="31" t="s">
         <v>0</v>
@@ -7306,7 +7150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="90" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
         <v>108</v>
       </c>
@@ -7314,16 +7158,16 @@
         <v>278</v>
       </c>
       <c r="C123" s="28" t="s">
-        <v>500</v>
+        <v>474</v>
       </c>
       <c r="D123" s="30" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E123" s="28" t="s">
-        <v>625</v>
+        <v>591</v>
       </c>
       <c r="F123" s="28" t="s">
-        <v>694</v>
+        <v>644</v>
       </c>
       <c r="G123" s="30" t="s">
         <v>0</v>
@@ -7332,24 +7176,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="240" x14ac:dyDescent="0.2">
-      <c r="A124" s="27" t="s">
+    <row r="124" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A124" s="56" t="s">
         <v>109</v>
       </c>
       <c r="B124" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="C124" s="29" t="s">
-        <v>344</v>
+      <c r="C124" s="61" t="s">
+        <v>728</v>
       </c>
       <c r="D124" s="31" t="s">
-        <v>526</v>
-      </c>
-      <c r="E124" s="52" t="s">
-        <v>708</v>
+        <v>499</v>
+      </c>
+      <c r="E124" s="49" t="s">
+        <v>655</v>
       </c>
       <c r="F124" s="29" t="s">
-        <v>687</v>
+        <v>638</v>
       </c>
       <c r="G124" s="31" t="s">
         <v>0</v>
@@ -7358,7 +7202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="225" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
         <v>110</v>
       </c>
@@ -7366,16 +7210,16 @@
         <v>280</v>
       </c>
       <c r="C125" s="28" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="D125" s="30" t="s">
-        <v>526</v>
-      </c>
-      <c r="E125" s="53" t="s">
-        <v>709</v>
+        <v>499</v>
+      </c>
+      <c r="E125" s="50" t="s">
+        <v>656</v>
       </c>
       <c r="F125" s="28" t="s">
-        <v>687</v>
+        <v>638</v>
       </c>
       <c r="G125" s="30" t="s">
         <v>0</v>
@@ -7384,7 +7228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="225" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A126" s="27" t="s">
         <v>111</v>
       </c>
@@ -7392,16 +7236,16 @@
         <v>281</v>
       </c>
       <c r="C126" s="29" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="D126" s="31" t="s">
-        <v>526</v>
-      </c>
-      <c r="E126" s="52" t="s">
-        <v>710</v>
+        <v>499</v>
+      </c>
+      <c r="E126" s="49" t="s">
+        <v>657</v>
       </c>
       <c r="F126" s="29" t="s">
-        <v>687</v>
+        <v>638</v>
       </c>
       <c r="G126" s="31" t="s">
         <v>0</v>
@@ -7410,7 +7254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="225" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A127" s="26" t="s">
         <v>112</v>
       </c>
@@ -7418,16 +7262,16 @@
         <v>282</v>
       </c>
       <c r="C127" s="28" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="D127" s="30" t="s">
-        <v>526</v>
-      </c>
-      <c r="E127" s="53" t="s">
-        <v>711</v>
+        <v>499</v>
+      </c>
+      <c r="E127" s="50" t="s">
+        <v>658</v>
       </c>
       <c r="F127" s="28" t="s">
-        <v>687</v>
+        <v>638</v>
       </c>
       <c r="G127" s="30" t="s">
         <v>0</v>
@@ -7436,7 +7280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="150" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A128" s="27" t="s">
         <v>113</v>
       </c>
@@ -7444,16 +7288,16 @@
         <v>283</v>
       </c>
       <c r="C128" s="29" t="s">
-        <v>578</v>
+        <v>550</v>
       </c>
       <c r="D128" s="31" t="s">
-        <v>526</v>
-      </c>
-      <c r="E128" s="52" t="s">
-        <v>712</v>
+        <v>499</v>
+      </c>
+      <c r="E128" s="49" t="s">
+        <v>659</v>
       </c>
       <c r="F128" s="29" t="s">
-        <v>687</v>
+        <v>638</v>
       </c>
       <c r="G128" s="31" t="s">
         <v>0</v>
@@ -7462,7 +7306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="150" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A129" s="26" t="s">
         <v>114</v>
       </c>
@@ -7470,13 +7314,13 @@
         <v>284</v>
       </c>
       <c r="C129" s="28" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="D129" s="30" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E129" s="28" t="s">
-        <v>630</v>
+        <v>595</v>
       </c>
       <c r="F129" s="32" t="s">
         <v>0</v>
@@ -7488,7 +7332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A130" s="27" t="s">
         <v>115</v>
       </c>
@@ -7496,13 +7340,13 @@
         <v>285</v>
       </c>
       <c r="C130" s="29" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="D130" s="31" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E130" s="29" t="s">
-        <v>579</v>
+        <v>551</v>
       </c>
       <c r="F130" s="33" t="s">
         <v>0</v>
@@ -7514,7 +7358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="270" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A131" s="26" t="s">
         <v>116</v>
       </c>
@@ -7522,16 +7366,16 @@
         <v>208</v>
       </c>
       <c r="C131" s="28" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="D131" s="30" t="s">
-        <v>526</v>
-      </c>
-      <c r="E131" s="53" t="s">
-        <v>713</v>
+        <v>499</v>
+      </c>
+      <c r="E131" s="50" t="s">
+        <v>660</v>
       </c>
       <c r="F131" s="28" t="s">
-        <v>687</v>
+        <v>638</v>
       </c>
       <c r="G131" s="30" t="s">
         <v>0</v>
@@ -7540,7 +7384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="285" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A132" s="27" t="s">
         <v>117</v>
       </c>
@@ -7548,16 +7392,16 @@
         <v>286</v>
       </c>
       <c r="C132" s="29" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="D132" s="31" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E132" s="29" t="s">
-        <v>691</v>
+        <v>641</v>
       </c>
       <c r="F132" s="29" t="s">
-        <v>687</v>
+        <v>638</v>
       </c>
       <c r="G132" s="31" t="s">
         <v>0</v>
@@ -7566,7 +7410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="150" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A133" s="26" t="s">
         <v>118</v>
       </c>
@@ -7574,16 +7418,16 @@
         <v>287</v>
       </c>
       <c r="C133" s="28" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="D133" s="30" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E133" s="28" t="s">
-        <v>631</v>
+        <v>596</v>
       </c>
       <c r="F133" s="28" t="s">
-        <v>687</v>
+        <v>638</v>
       </c>
       <c r="G133" s="30" t="s">
         <v>0</v>
@@ -7592,7 +7436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="210" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A134" s="27" t="s">
         <v>119</v>
       </c>
@@ -7600,16 +7444,16 @@
         <v>288</v>
       </c>
       <c r="C134" s="29" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="D134" s="31" t="s">
-        <v>526</v>
-      </c>
-      <c r="E134" s="52" t="s">
-        <v>714</v>
+        <v>499</v>
+      </c>
+      <c r="E134" s="49" t="s">
+        <v>661</v>
       </c>
       <c r="F134" s="29" t="s">
-        <v>687</v>
+        <v>638</v>
       </c>
       <c r="G134" s="31" t="s">
         <v>0</v>
@@ -7618,7 +7462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="405" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A135" s="26" t="s">
         <v>120</v>
       </c>
@@ -7626,25 +7470,25 @@
         <v>289</v>
       </c>
       <c r="C135" s="28" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="D135" s="30" t="s">
-        <v>526</v>
-      </c>
-      <c r="E135" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="F135" s="28" t="s">
-        <v>632</v>
-      </c>
-      <c r="G135" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="H135" s="28" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="300" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+      <c r="E135" s="63" t="s">
+        <v>712</v>
+      </c>
+      <c r="F135" s="63" t="s">
+        <v>711</v>
+      </c>
+      <c r="G135" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="H135" s="65" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A136" s="27" t="s">
         <v>121</v>
       </c>
@@ -7652,25 +7496,25 @@
         <v>209</v>
       </c>
       <c r="C136" s="29" t="s">
-        <v>501</v>
+        <v>475</v>
       </c>
       <c r="D136" s="31" t="s">
-        <v>526</v>
-      </c>
-      <c r="E136" s="29" t="s">
-        <v>635</v>
-      </c>
-      <c r="F136" s="29" t="s">
-        <v>634</v>
-      </c>
-      <c r="G136" s="29" t="s">
-        <v>322</v>
-      </c>
-      <c r="H136" s="29" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="210" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+      <c r="E136" s="61" t="s">
+        <v>713</v>
+      </c>
+      <c r="F136" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="G136" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="H136" s="64" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A137" s="26" t="s">
         <v>122</v>
       </c>
@@ -7678,25 +7522,25 @@
         <v>290</v>
       </c>
       <c r="C137" s="28" t="s">
-        <v>647</v>
+        <v>600</v>
       </c>
       <c r="D137" s="30" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E137" s="28" t="s">
-        <v>637</v>
-      </c>
-      <c r="F137" s="28" t="s">
-        <v>636</v>
-      </c>
-      <c r="G137" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="H137" s="28" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="165" x14ac:dyDescent="0.2">
+        <v>597</v>
+      </c>
+      <c r="F137" s="63" t="s">
+        <v>698</v>
+      </c>
+      <c r="G137" s="60" t="s">
+        <v>308</v>
+      </c>
+      <c r="H137" s="60" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A138" s="27" t="s">
         <v>123</v>
       </c>
@@ -7704,25 +7548,25 @@
         <v>291</v>
       </c>
       <c r="C138" s="29" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="D138" s="31" t="s">
-        <v>526</v>
-      </c>
-      <c r="E138" s="29" t="s">
-        <v>580</v>
-      </c>
-      <c r="F138" s="29" t="s">
-        <v>638</v>
-      </c>
-      <c r="G138" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="H138" s="29" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="270" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+      <c r="E138" s="61" t="s">
+        <v>708</v>
+      </c>
+      <c r="F138" s="61" t="s">
+        <v>709</v>
+      </c>
+      <c r="G138" s="58" t="s">
+        <v>697</v>
+      </c>
+      <c r="H138" s="61" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A139" s="26" t="s">
         <v>124</v>
       </c>
@@ -7730,16 +7574,16 @@
         <v>292</v>
       </c>
       <c r="C139" s="28" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="D139" s="30" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E139" s="28" t="s">
-        <v>639</v>
+        <v>598</v>
       </c>
       <c r="F139" s="28" t="s">
-        <v>687</v>
+        <v>638</v>
       </c>
       <c r="G139" s="30" t="s">
         <v>0</v>
@@ -7748,7 +7592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="345" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" ht="390" x14ac:dyDescent="0.25">
       <c r="A140" s="27" t="s">
         <v>125</v>
       </c>
@@ -7756,25 +7600,25 @@
         <v>293</v>
       </c>
       <c r="C140" s="29" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="D140" s="31" t="s">
-        <v>526</v>
-      </c>
-      <c r="E140" s="29" t="s">
-        <v>641</v>
-      </c>
-      <c r="F140" s="29" t="s">
-        <v>640</v>
-      </c>
-      <c r="G140" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="H140" s="29" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="90" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+      <c r="E140" s="61" t="s">
+        <v>710</v>
+      </c>
+      <c r="F140" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="G140" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="H140" s="64" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A141" s="26" t="s">
         <v>126</v>
       </c>
@@ -7782,25 +7626,25 @@
         <v>210</v>
       </c>
       <c r="C141" s="28" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="D141" s="30" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E141" s="28" t="s">
-        <v>642</v>
-      </c>
-      <c r="F141" s="28" t="s">
-        <v>643</v>
-      </c>
-      <c r="G141" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="H141" s="28" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="195" x14ac:dyDescent="0.2">
+        <v>599</v>
+      </c>
+      <c r="F141" s="57" t="s">
+        <v>696</v>
+      </c>
+      <c r="G141" s="57" t="s">
+        <v>694</v>
+      </c>
+      <c r="H141" s="63" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A142" s="27" t="s">
         <v>127</v>
       </c>
@@ -7808,51 +7652,51 @@
         <v>211</v>
       </c>
       <c r="C142" s="29" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="D142" s="31" t="s">
-        <v>526</v>
-      </c>
-      <c r="E142" s="29" t="s">
-        <v>475</v>
-      </c>
-      <c r="F142" s="49" t="s">
-        <v>706</v>
-      </c>
-      <c r="G142" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="H142" s="29" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="135" x14ac:dyDescent="0.2">
-      <c r="A143" s="50" t="s">
+        <v>499</v>
+      </c>
+      <c r="E142" s="61" t="s">
+        <v>714</v>
+      </c>
+      <c r="F142" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="G142" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="H142" s="64" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A143" s="47" t="s">
         <v>128</v>
       </c>
       <c r="B143" s="26" t="s">
         <v>294</v>
       </c>
       <c r="C143" s="28" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="D143" s="30" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E143" s="28" t="s">
-        <v>475</v>
-      </c>
-      <c r="F143" s="28" t="s">
-        <v>644</v>
-      </c>
-      <c r="G143" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="H143" s="28" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+        <v>450</v>
+      </c>
+      <c r="F143" s="57" t="s">
+        <v>695</v>
+      </c>
+      <c r="G143" s="57" t="s">
+        <v>694</v>
+      </c>
+      <c r="H143" s="57" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A144" s="27" t="s">
         <v>129</v>
       </c>
@@ -7860,13 +7704,13 @@
         <v>212</v>
       </c>
       <c r="C144" s="29" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="D144" s="31" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E144" s="29" t="s">
-        <v>663</v>
+        <v>616</v>
       </c>
       <c r="F144" s="33" t="s">
         <v>0</v>
@@ -7878,102 +7722,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="150" x14ac:dyDescent="0.2">
-      <c r="A145" s="50" t="s">
+    <row r="145" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A145" s="47" t="s">
         <v>130</v>
       </c>
       <c r="B145" s="26" t="s">
         <v>213</v>
       </c>
       <c r="C145" s="28" t="s">
-        <v>448</v>
+        <v>423</v>
       </c>
       <c r="D145" s="30" t="s">
-        <v>526</v>
-      </c>
-      <c r="E145" s="28" t="s">
-        <v>480</v>
-      </c>
-      <c r="F145" s="46" t="s">
-        <v>707</v>
-      </c>
-      <c r="G145" s="28" t="s">
-        <v>329</v>
-      </c>
-      <c r="H145" s="28" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="195" x14ac:dyDescent="0.2">
-      <c r="A146" s="51" t="s">
+        <v>499</v>
+      </c>
+      <c r="E145" s="63" t="s">
+        <v>715</v>
+      </c>
+      <c r="F145" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="G145" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="H145" s="65" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A146" s="48" t="s">
         <v>131</v>
       </c>
       <c r="B146" s="27" t="s">
         <v>295</v>
       </c>
       <c r="C146" s="29" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="D146" s="31" t="s">
-        <v>526</v>
-      </c>
-      <c r="E146" s="29" t="s">
-        <v>645</v>
-      </c>
-      <c r="F146" s="49" t="s">
-        <v>646</v>
-      </c>
-      <c r="G146" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="H146" s="29" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="165" x14ac:dyDescent="0.2">
-      <c r="A147" s="56" t="s">
+        <v>499</v>
+      </c>
+      <c r="E146" s="61" t="s">
+        <v>716</v>
+      </c>
+      <c r="F146" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="G146" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="H146" s="64" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A147" s="53" t="s">
         <v>132</v>
       </c>
       <c r="B147" s="26" t="s">
         <v>296</v>
       </c>
       <c r="C147" s="28" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="D147" s="30" t="s">
-        <v>526</v>
-      </c>
-      <c r="E147" s="28" t="s">
-        <v>513</v>
-      </c>
-      <c r="F147" s="28" t="s">
-        <v>665</v>
-      </c>
-      <c r="G147" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="H147" s="28" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="105" x14ac:dyDescent="0.2">
-      <c r="A148" s="57" t="s">
-        <v>729</v>
+        <v>499</v>
+      </c>
+      <c r="E147" s="63" t="s">
+        <v>717</v>
+      </c>
+      <c r="F147" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="G147" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="H147" s="65" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A148" s="54" t="s">
+        <v>675</v>
       </c>
       <c r="B148" s="27" t="s">
         <v>214</v>
       </c>
       <c r="C148" s="29" t="s">
-        <v>502</v>
+        <v>476</v>
       </c>
       <c r="D148" s="31" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E148" s="29" t="s">
-        <v>692</v>
+        <v>642</v>
       </c>
       <c r="F148" s="29" t="s">
-        <v>688</v>
+        <v>639</v>
       </c>
       <c r="G148" s="31" t="s">
         <v>0</v>
@@ -7982,24 +7826,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A149" s="56" t="s">
-        <v>730</v>
+    <row r="149" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A149" s="53" t="s">
+        <v>676</v>
       </c>
       <c r="B149" s="26" t="s">
         <v>150</v>
       </c>
       <c r="C149" s="28" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="D149" s="30" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E149" s="28" t="s">
-        <v>514</v>
+        <v>487</v>
       </c>
       <c r="F149" s="28" t="s">
-        <v>688</v>
+        <v>639</v>
       </c>
       <c r="G149" s="30" t="s">
         <v>0</v>
@@ -8008,24 +7852,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="135" x14ac:dyDescent="0.2">
-      <c r="A150" s="57" t="s">
-        <v>731</v>
+    <row r="150" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A150" s="54" t="s">
+        <v>677</v>
       </c>
       <c r="B150" s="27" t="s">
         <v>215</v>
       </c>
       <c r="C150" s="29" t="s">
-        <v>503</v>
+        <v>477</v>
       </c>
       <c r="D150" s="31" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E150" s="29" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="F150" s="29" t="s">
-        <v>688</v>
+        <v>639</v>
       </c>
       <c r="G150" s="31" t="s">
         <v>0</v>
@@ -8034,24 +7878,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="75" x14ac:dyDescent="0.2">
-      <c r="A151" s="56" t="s">
-        <v>732</v>
+    <row r="151" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A151" s="53" t="s">
+        <v>678</v>
       </c>
       <c r="B151" s="26" t="s">
         <v>215</v>
       </c>
       <c r="C151" s="28" t="s">
-        <v>504</v>
+        <v>478</v>
       </c>
       <c r="D151" s="30" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E151" s="28" t="s">
-        <v>515</v>
+        <v>488</v>
       </c>
       <c r="F151" s="28" t="s">
-        <v>688</v>
+        <v>639</v>
       </c>
       <c r="G151" s="30" t="s">
         <v>0</v>
@@ -8060,24 +7904,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="105" x14ac:dyDescent="0.2">
-      <c r="A152" s="57" t="s">
-        <v>733</v>
+    <row r="152" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A152" s="54" t="s">
+        <v>679</v>
       </c>
       <c r="B152" s="27" t="s">
         <v>216</v>
       </c>
       <c r="C152" s="29" t="s">
-        <v>505</v>
+        <v>479</v>
       </c>
       <c r="D152" s="31" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E152" s="29" t="s">
-        <v>692</v>
+        <v>642</v>
       </c>
       <c r="F152" s="29" t="s">
-        <v>688</v>
+        <v>639</v>
       </c>
       <c r="G152" s="31" t="s">
         <v>0</v>
@@ -8086,24 +7930,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="120" x14ac:dyDescent="0.2">
-      <c r="A153" s="56" t="s">
-        <v>734</v>
+    <row r="153" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A153" s="53" t="s">
+        <v>680</v>
       </c>
       <c r="B153" s="26" t="s">
         <v>297</v>
       </c>
       <c r="C153" s="28" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
       <c r="D153" s="30" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E153" s="28" t="s">
-        <v>625</v>
+        <v>591</v>
       </c>
       <c r="F153" s="28" t="s">
-        <v>688</v>
+        <v>639</v>
       </c>
       <c r="G153" s="30" t="s">
         <v>0</v>
@@ -8112,21 +7956,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="165" x14ac:dyDescent="0.2">
-      <c r="A154" s="57" t="s">
-        <v>735</v>
+    <row r="154" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A154" s="54" t="s">
+        <v>681</v>
       </c>
       <c r="B154" s="27" t="s">
         <v>298</v>
       </c>
       <c r="C154" s="29" t="s">
-        <v>507</v>
+        <v>481</v>
       </c>
       <c r="D154" s="31" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E154" s="29" t="s">
-        <v>516</v>
+        <v>489</v>
       </c>
       <c r="F154" s="33" t="s">
         <v>0</v>
@@ -8138,21 +7982,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="135" x14ac:dyDescent="0.2">
-      <c r="A155" s="56" t="s">
-        <v>736</v>
+    <row r="155" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A155" s="53" t="s">
+        <v>682</v>
       </c>
       <c r="B155" s="26" t="s">
         <v>217</v>
       </c>
       <c r="C155" s="28" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="D155" s="30" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E155" s="28" t="s">
-        <v>516</v>
+        <v>489</v>
       </c>
       <c r="F155" s="32" t="s">
         <v>0</v>
@@ -8164,21 +8008,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="90" x14ac:dyDescent="0.2">
-      <c r="A156" s="57" t="s">
-        <v>737</v>
+    <row r="156" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A156" s="54" t="s">
+        <v>683</v>
       </c>
       <c r="B156" s="27" t="s">
         <v>217</v>
       </c>
       <c r="C156" s="29" t="s">
-        <v>508</v>
+        <v>482</v>
       </c>
       <c r="D156" s="31" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E156" s="29" t="s">
-        <v>517</v>
+        <v>490</v>
       </c>
       <c r="F156" s="33" t="s">
         <v>0</v>
@@ -8190,21 +8034,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="105" x14ac:dyDescent="0.2">
-      <c r="A157" s="56" t="s">
-        <v>738</v>
+    <row r="157" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A157" s="53" t="s">
+        <v>684</v>
       </c>
       <c r="B157" s="26" t="s">
         <v>217</v>
       </c>
       <c r="C157" s="28" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="D157" s="30" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E157" s="28" t="s">
-        <v>518</v>
+        <v>491</v>
       </c>
       <c r="F157" s="32" t="s">
         <v>0</v>
@@ -8216,21 +8060,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="75" x14ac:dyDescent="0.2">
-      <c r="A158" s="57" t="s">
-        <v>739</v>
+    <row r="158" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A158" s="54" t="s">
+        <v>685</v>
       </c>
       <c r="B158" s="27" t="s">
         <v>217</v>
       </c>
       <c r="C158" s="29" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="D158" s="31" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E158" s="29" t="s">
-        <v>519</v>
+        <v>492</v>
       </c>
       <c r="F158" s="33" t="s">
         <v>0</v>
@@ -8242,21 +8086,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="210" x14ac:dyDescent="0.2">
-      <c r="A159" s="56" t="s">
+    <row r="159" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+      <c r="A159" s="53" t="s">
         <v>133</v>
       </c>
       <c r="B159" s="26" t="s">
         <v>197</v>
       </c>
       <c r="C159" s="28" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="D159" s="30" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E159" s="28" t="s">
-        <v>650</v>
+        <v>603</v>
       </c>
       <c r="F159" s="32" t="s">
         <v>0</v>
@@ -8268,7 +8112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="105" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A160" s="27" t="s">
         <v>134</v>
       </c>
@@ -8276,13 +8120,13 @@
         <v>180</v>
       </c>
       <c r="C160" s="29" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="D160" s="31" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E160" s="29" t="s">
-        <v>650</v>
+        <v>603</v>
       </c>
       <c r="F160" s="33" t="s">
         <v>0</v>
@@ -8294,21 +8138,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="75" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A161" s="26" t="s">
-        <v>520</v>
+        <v>493</v>
       </c>
       <c r="B161" s="26" t="s">
         <v>218</v>
       </c>
       <c r="C161" s="28" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D161" s="30" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E161" s="28" t="s">
-        <v>652</v>
+        <v>605</v>
       </c>
       <c r="F161" s="32" t="s">
         <v>0</v>
@@ -8320,21 +8164,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="75" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A162" s="27" t="s">
-        <v>521</v>
+        <v>494</v>
       </c>
       <c r="B162" s="27" t="s">
         <v>219</v>
       </c>
       <c r="C162" s="29" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="D162" s="31" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E162" s="29" t="s">
-        <v>651</v>
+        <v>604</v>
       </c>
       <c r="F162" s="33" t="s">
         <v>0</v>
@@ -8346,21 +8190,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="75" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A163" s="26" t="s">
-        <v>522</v>
+        <v>495</v>
       </c>
       <c r="B163" s="26" t="s">
         <v>220</v>
       </c>
       <c r="C163" s="28" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="D163" s="30" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="E163" s="28" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="F163" s="32" t="s">
         <v>0</v>
@@ -8372,21 +8216,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="195" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A164" s="27" t="s">
         <v>135</v>
       </c>
       <c r="B164" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="C164" s="55" t="s">
-        <v>649</v>
+      <c r="C164" s="52" t="s">
+        <v>602</v>
       </c>
       <c r="D164" s="31" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
       <c r="E164" s="29" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="F164" s="33" t="s">
         <v>0</v>
@@ -8398,7 +8242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="360" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" ht="390" x14ac:dyDescent="0.25">
       <c r="A165" s="26" t="s">
         <v>136</v>
       </c>
@@ -8406,13 +8250,13 @@
         <v>221</v>
       </c>
       <c r="C165" s="28" t="s">
-        <v>653</v>
+        <v>606</v>
       </c>
       <c r="D165" s="30" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
       <c r="E165" s="28" t="s">
-        <v>655</v>
+        <v>608</v>
       </c>
       <c r="F165" s="32" t="s">
         <v>0</v>
@@ -8424,7 +8268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A166" s="27" t="s">
         <v>136</v>
       </c>
@@ -8432,13 +8276,13 @@
         <v>299</v>
       </c>
       <c r="C166" s="29" t="s">
-        <v>654</v>
+        <v>607</v>
       </c>
       <c r="D166" s="31" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
       <c r="E166" s="29" t="s">
-        <v>655</v>
+        <v>608</v>
       </c>
       <c r="F166" s="33" t="s">
         <v>0</v>
@@ -8450,7 +8294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="360" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A167" s="26" t="s">
         <v>137</v>
       </c>
@@ -8458,13 +8302,13 @@
         <v>300</v>
       </c>
       <c r="C167" s="28" t="s">
-        <v>719</v>
+        <v>665</v>
       </c>
       <c r="D167" s="30" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
       <c r="E167" s="28" t="s">
-        <v>656</v>
+        <v>609</v>
       </c>
       <c r="F167" s="32" t="s">
         <v>0</v>
@@ -8476,7 +8320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="90" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A168" s="27" t="s">
         <v>138</v>
       </c>
@@ -8484,13 +8328,13 @@
         <v>222</v>
       </c>
       <c r="C168" s="29" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="D168" s="31" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
       <c r="E168" s="29" t="s">
-        <v>657</v>
+        <v>610</v>
       </c>
       <c r="F168" s="33" t="s">
         <v>0</v>
@@ -8502,7 +8346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A169" s="26" t="s">
         <v>139</v>
       </c>
@@ -8510,13 +8354,13 @@
         <v>223</v>
       </c>
       <c r="C169" s="28" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="D169" s="30" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
       <c r="E169" s="28" t="s">
-        <v>658</v>
+        <v>611</v>
       </c>
       <c r="F169" s="32" t="s">
         <v>0</v>
@@ -8528,7 +8372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A170" s="27" t="s">
         <v>140</v>
       </c>
@@ -8536,13 +8380,13 @@
         <v>301</v>
       </c>
       <c r="C170" s="29" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="D170" s="31" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
       <c r="E170" s="29" t="s">
-        <v>659</v>
+        <v>612</v>
       </c>
       <c r="F170" s="33" t="s">
         <v>0</v>
@@ -8554,7 +8398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="225" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A171" s="26" t="s">
         <v>141</v>
       </c>
@@ -8562,13 +8406,13 @@
         <v>224</v>
       </c>
       <c r="C171" s="28" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="D171" s="30" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
       <c r="E171" s="28" t="s">
-        <v>660</v>
+        <v>613</v>
       </c>
       <c r="F171" s="32" t="s">
         <v>0</v>
@@ -8580,7 +8424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="345" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A172" s="27" t="s">
         <v>142</v>
       </c>
@@ -8588,13 +8432,13 @@
         <v>302</v>
       </c>
       <c r="C172" s="29" t="s">
-        <v>509</v>
+        <v>483</v>
       </c>
       <c r="D172" s="31" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
       <c r="E172" s="29" t="s">
-        <v>661</v>
+        <v>614</v>
       </c>
       <c r="F172" s="33" t="s">
         <v>0</v>
@@ -8606,7 +8450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="409" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A173" s="26" t="s">
         <v>143</v>
       </c>
@@ -8614,13 +8458,13 @@
         <v>303</v>
       </c>
       <c r="C173" s="28" t="s">
-        <v>510</v>
+        <v>484</v>
       </c>
       <c r="D173" s="30" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
       <c r="E173" s="28" t="s">
-        <v>662</v>
+        <v>615</v>
       </c>
       <c r="F173" s="32" t="s">
         <v>0</v>
@@ -8632,7 +8476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="285" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A174" s="27" t="s">
         <v>144</v>
       </c>
@@ -8640,13 +8484,13 @@
         <v>225</v>
       </c>
       <c r="C174" s="29" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="D174" s="31" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
       <c r="E174" s="29" t="s">
-        <v>523</v>
+        <v>496</v>
       </c>
       <c r="F174" s="33" t="s">
         <v>0</v>
@@ -8658,7 +8502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A175" s="26" t="s">
         <v>145</v>
       </c>
@@ -8666,13 +8510,13 @@
         <v>227</v>
       </c>
       <c r="C175" s="28" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="D175" s="30" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
       <c r="E175" s="28" t="s">
-        <v>530</v>
+        <v>503</v>
       </c>
       <c r="F175" s="32" t="s">
         <v>0</v>
@@ -8684,512 +8528,512 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E176" s="2"/>
       <c r="G176" s="34"/>
     </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E177" s="2"/>
     </row>
-    <row r="178" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E178" s="2"/>
     </row>
-    <row r="179" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E179" s="2"/>
     </row>
-    <row r="180" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E180" s="2"/>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E181" s="2"/>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E182" s="2"/>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E183" s="2"/>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E184" s="2"/>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E185" s="2"/>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E186" s="2"/>
     </row>
-    <row r="187" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E187" s="2"/>
     </row>
-    <row r="188" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E188" s="2"/>
     </row>
-    <row r="189" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E189" s="2"/>
     </row>
-    <row r="190" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E190" s="2"/>
     </row>
-    <row r="191" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E191" s="2"/>
     </row>
-    <row r="192" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E192" s="2"/>
     </row>
-    <row r="193" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E193" s="2"/>
     </row>
-    <row r="194" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E194" s="2"/>
     </row>
-    <row r="195" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E195" s="2"/>
     </row>
-    <row r="196" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E196" s="2"/>
     </row>
-    <row r="197" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E197" s="2"/>
     </row>
-    <row r="198" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E198" s="2"/>
     </row>
-    <row r="199" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E199" s="2"/>
     </row>
-    <row r="200" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E200" s="2"/>
     </row>
-    <row r="201" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E201" s="2"/>
     </row>
-    <row r="202" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E202" s="2"/>
     </row>
-    <row r="203" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E203" s="2"/>
     </row>
-    <row r="204" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E204" s="2"/>
     </row>
-    <row r="205" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E205" s="2"/>
     </row>
-    <row r="206" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E206" s="2"/>
     </row>
-    <row r="207" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E207" s="2"/>
     </row>
-    <row r="208" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E208" s="2"/>
     </row>
-    <row r="209" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E209" s="2"/>
     </row>
-    <row r="210" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E210" s="2"/>
     </row>
-    <row r="211" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E211" s="2"/>
     </row>
-    <row r="212" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E212" s="2"/>
     </row>
-    <row r="213" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E213" s="2"/>
     </row>
-    <row r="214" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E214" s="2"/>
     </row>
-    <row r="215" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E215" s="2"/>
     </row>
-    <row r="216" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E216" s="2"/>
     </row>
-    <row r="217" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E217" s="2"/>
     </row>
-    <row r="218" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E218" s="2"/>
     </row>
-    <row r="219" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E219" s="2"/>
     </row>
-    <row r="220" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E220" s="2"/>
     </row>
-    <row r="221" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E221" s="2"/>
     </row>
-    <row r="222" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E222" s="2"/>
     </row>
-    <row r="223" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E223" s="2"/>
     </row>
-    <row r="224" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E224" s="2"/>
     </row>
-    <row r="225" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E225" s="2"/>
     </row>
-    <row r="226" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E226" s="2"/>
     </row>
-    <row r="227" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E227" s="2"/>
     </row>
-    <row r="228" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E228" s="2"/>
     </row>
-    <row r="229" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E229" s="2"/>
     </row>
-    <row r="230" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E230" s="2"/>
     </row>
-    <row r="231" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E231" s="2"/>
     </row>
-    <row r="232" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E232" s="2"/>
     </row>
-    <row r="233" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E233" s="2"/>
     </row>
-    <row r="234" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E234" s="2"/>
     </row>
-    <row r="235" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E235" s="2"/>
     </row>
-    <row r="236" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E236" s="2"/>
     </row>
-    <row r="237" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E237" s="2"/>
     </row>
-    <row r="238" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E238" s="2"/>
     </row>
-    <row r="239" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E239" s="2"/>
     </row>
-    <row r="240" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E240" s="2"/>
     </row>
-    <row r="241" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E241" s="2"/>
     </row>
-    <row r="242" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E242" s="2"/>
     </row>
-    <row r="243" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E243" s="2"/>
     </row>
-    <row r="244" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E244" s="2"/>
     </row>
-    <row r="245" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E245" s="2"/>
     </row>
-    <row r="246" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E246" s="2"/>
     </row>
-    <row r="247" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E247" s="2"/>
     </row>
-    <row r="248" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E248" s="2"/>
     </row>
-    <row r="249" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E249" s="2"/>
     </row>
-    <row r="250" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E250" s="2"/>
     </row>
-    <row r="251" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E251" s="2"/>
     </row>
-    <row r="252" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E252" s="2"/>
     </row>
-    <row r="253" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E253" s="2"/>
     </row>
-    <row r="254" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E254" s="2"/>
     </row>
-    <row r="255" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E255" s="2"/>
     </row>
-    <row r="256" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E256" s="2"/>
     </row>
-    <row r="257" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E257" s="2"/>
     </row>
-    <row r="258" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E258" s="2"/>
     </row>
-    <row r="259" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E259" s="2"/>
     </row>
-    <row r="260" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E260" s="2"/>
     </row>
-    <row r="261" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E261" s="2"/>
     </row>
-    <row r="262" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E262" s="2"/>
     </row>
-    <row r="263" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E263" s="2"/>
     </row>
-    <row r="264" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E264" s="2"/>
     </row>
-    <row r="265" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E265" s="2"/>
     </row>
-    <row r="266" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E266" s="2"/>
     </row>
-    <row r="267" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E267" s="2"/>
     </row>
-    <row r="268" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E268" s="2"/>
     </row>
-    <row r="269" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E269" s="2"/>
     </row>
-    <row r="270" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E270" s="2"/>
     </row>
-    <row r="271" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E271" s="2"/>
     </row>
-    <row r="272" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E272" s="2"/>
     </row>
-    <row r="273" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E273" s="2"/>
     </row>
-    <row r="274" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E274" s="2"/>
     </row>
-    <row r="275" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E275" s="2"/>
     </row>
-    <row r="276" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E276" s="2"/>
     </row>
-    <row r="277" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E277" s="2"/>
     </row>
-    <row r="278" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E278" s="2"/>
     </row>
-    <row r="279" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E279" s="2"/>
     </row>
-    <row r="280" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E280" s="2"/>
     </row>
-    <row r="281" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E281" s="2"/>
     </row>
-    <row r="282" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E282" s="2"/>
     </row>
-    <row r="283" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E283" s="2"/>
     </row>
-    <row r="284" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E284" s="2"/>
     </row>
-    <row r="285" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E285" s="2"/>
     </row>
-    <row r="286" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E286" s="2"/>
     </row>
-    <row r="287" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E287" s="2"/>
     </row>
-    <row r="288" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E288" s="2"/>
     </row>
-    <row r="289" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E289" s="2"/>
     </row>
-    <row r="290" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E290" s="2"/>
     </row>
-    <row r="291" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E291" s="2"/>
     </row>
-    <row r="292" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E292" s="2"/>
     </row>
-    <row r="293" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E293" s="2"/>
     </row>
-    <row r="294" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E294" s="2"/>
     </row>
-    <row r="295" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E295" s="2"/>
     </row>
-    <row r="296" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E296" s="2"/>
     </row>
-    <row r="297" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E297" s="2"/>
     </row>
-    <row r="298" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E298" s="2"/>
     </row>
-    <row r="299" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E299" s="2"/>
     </row>
-    <row r="300" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E300" s="2"/>
     </row>
-    <row r="301" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E301" s="2"/>
     </row>
-    <row r="302" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E302" s="2"/>
     </row>
-    <row r="303" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E303" s="2"/>
     </row>
-    <row r="304" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E304" s="2"/>
     </row>
-    <row r="305" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E305" s="2"/>
     </row>
-    <row r="306" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E306" s="2"/>
     </row>
-    <row r="307" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E307" s="2"/>
     </row>
-    <row r="308" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E308" s="2"/>
     </row>
-    <row r="309" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E309" s="2"/>
     </row>
-    <row r="310" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E310" s="2"/>
     </row>
-    <row r="311" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E311" s="2"/>
     </row>
-    <row r="312" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E312" s="2"/>
     </row>
-    <row r="313" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E313" s="2"/>
     </row>
-    <row r="314" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E314" s="2"/>
     </row>
-    <row r="315" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E315" s="2"/>
     </row>
-    <row r="316" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E316" s="2"/>
     </row>
-    <row r="317" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E317" s="2"/>
     </row>
-    <row r="318" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E318" s="2"/>
     </row>
-    <row r="319" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E319" s="2"/>
     </row>
-    <row r="320" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E320" s="2"/>
     </row>
-    <row r="321" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E321" s="2"/>
     </row>
-    <row r="322" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E322" s="2"/>
     </row>
-    <row r="323" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E323" s="2"/>
     </row>
-    <row r="324" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E324" s="2"/>
     </row>
-    <row r="325" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E325" s="2"/>
     </row>
-    <row r="326" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E326" s="2"/>
     </row>
-    <row r="327" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E327" s="2"/>
     </row>
-    <row r="328" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E328" s="2"/>
     </row>
-    <row r="329" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E329" s="2"/>
     </row>
-    <row r="330" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E330" s="2"/>
     </row>
-    <row r="331" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E331" s="2"/>
     </row>
-    <row r="332" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E332" s="2"/>
     </row>
-    <row r="333" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E333" s="2"/>
     </row>
-    <row r="334" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E334" s="2"/>
     </row>
-    <row r="335" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E335" s="2"/>
     </row>
-    <row r="336" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E336" s="2"/>
     </row>
-    <row r="337" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E337" s="2"/>
     </row>
-    <row r="338" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E338" s="2"/>
     </row>
-    <row r="339" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E339" s="2"/>
     </row>
-    <row r="340" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E340" s="2"/>
     </row>
-    <row r="341" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E341" s="2"/>
     </row>
-    <row r="342" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E342" s="2"/>
     </row>
-    <row r="343" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E343" s="2"/>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="23"/>
       <c r="B354" s="23"/>
       <c r="C354" s="23"/>
@@ -9199,371 +9043,379 @@
       <c r="G354" s="23"/>
       <c r="H354" s="23"/>
     </row>
-    <row r="8888" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8888" s="43"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:H2"/>
+  <autoFilter ref="A2:H175"/>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.69124999999999992" right="0.69124999999999992" top="0.74062499999999998" bottom="0.74062499999999998" header="0.29624999999999996" footer="0.29624999999999996"/>
+  <pageSetup orientation="portrait" copies="0"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B8898"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="99.83203125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="38.625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="99.875" style="19" customWidth="1"/>
     <col min="3" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="B1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>675</v>
+        <v>626</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>527</v>
+        <v>500</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>532</v>
+        <v>505</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="58" t="s">
-        <v>683</v>
+        <v>692</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="55" t="s">
+        <v>634</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
-        <v>307</v>
-      </c>
       <c r="B9" s="22" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="90" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8882" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8882" s="47"/>
-      <c r="B8882" s="48"/>
-    </row>
-    <row r="8883" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8883" s="47"/>
-      <c r="B8883" s="48"/>
-    </row>
-    <row r="8884" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8884" s="47"/>
-      <c r="B8884" s="48"/>
-    </row>
-    <row r="8885" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8885" s="47"/>
-      <c r="B8885" s="48"/>
-    </row>
-    <row r="8886" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8886" s="47"/>
-      <c r="B8886" s="48"/>
-    </row>
-    <row r="8887" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8887" s="47"/>
-      <c r="B8887" s="48"/>
-    </row>
-    <row r="8888" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8888" s="39" t="s">
-        <v>701</v>
-      </c>
-      <c r="B8888" s="40"/>
-    </row>
-    <row r="8889" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8889" s="41" t="s">
-        <v>700</v>
-      </c>
-      <c r="B8889" s="40"/>
-    </row>
-    <row r="8890" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8890" s="39" t="s">
-        <v>698</v>
-      </c>
-      <c r="B8890" s="40" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="8891" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8891" s="42" t="s">
-        <v>699</v>
-      </c>
-      <c r="B8891" s="40"/>
-    </row>
-    <row r="8892" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8892" s="39" t="s">
-        <v>705</v>
-      </c>
-      <c r="B8892" s="40" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="8893" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8893" s="47"/>
-      <c r="B8893" s="48"/>
-    </row>
-    <row r="8894" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8894" s="47"/>
-      <c r="B8894" s="48"/>
-    </row>
-    <row r="8895" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8895" s="47"/>
-      <c r="B8895" s="48"/>
-    </row>
-    <row r="8896" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8896" s="47"/>
-      <c r="B8896" s="48"/>
-    </row>
-    <row r="8897" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8897" s="47"/>
-      <c r="B8897" s="48"/>
-    </row>
-    <row r="8898" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8898" s="47"/>
-      <c r="B8898" s="48"/>
+        <v>691</v>
+      </c>
+    </row>
+    <row r="90" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8882" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8882" s="44"/>
+      <c r="B8882" s="45"/>
+    </row>
+    <row r="8883" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8883" s="44"/>
+      <c r="B8883" s="45"/>
+    </row>
+    <row r="8884" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8884" s="44"/>
+      <c r="B8884" s="45"/>
+    </row>
+    <row r="8885" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8885" s="44"/>
+      <c r="B8885" s="45"/>
+    </row>
+    <row r="8886" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8886" s="44"/>
+      <c r="B8886" s="45"/>
+    </row>
+    <row r="8887" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8887" s="44"/>
+      <c r="B8887" s="45"/>
+    </row>
+    <row r="8888" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8888" s="37" t="s">
+        <v>650</v>
+      </c>
+      <c r="B8888" s="38"/>
+    </row>
+    <row r="8889" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8889" s="39" t="s">
+        <v>649</v>
+      </c>
+      <c r="B8889" s="38"/>
+    </row>
+    <row r="8890" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8890" s="37" t="s">
+        <v>647</v>
+      </c>
+      <c r="B8890" s="38" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="8891" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8891" s="40" t="s">
+        <v>648</v>
+      </c>
+      <c r="B8891" s="38"/>
+    </row>
+    <row r="8892" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8892" s="37" t="s">
+        <v>654</v>
+      </c>
+      <c r="B8892" s="38" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="8893" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8893" s="44"/>
+      <c r="B8893" s="45"/>
+    </row>
+    <row r="8894" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8894" s="44"/>
+      <c r="B8894" s="45"/>
+    </row>
+    <row r="8895" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8895" s="44"/>
+      <c r="B8895" s="45"/>
+    </row>
+    <row r="8896" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8896" s="44"/>
+      <c r="B8896" s="45"/>
+    </row>
+    <row r="8897" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8897" s="44"/>
+      <c r="B8897" s="45"/>
+    </row>
+    <row r="8898" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8898" s="44"/>
+      <c r="B8898" s="45"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.69124999999999992" right="0.69124999999999992" top="0.74062499999999998" bottom="0.74062499999999998" header="0.29624999999999996" footer="0.29624999999999996"/>
+  <pageSetup orientation="portrait" copies="0"/>
+  <headerFooter alignWithMargins="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B8908"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="80" customWidth="1"/>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="87.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="B1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>42776</v>
       </c>
       <c r="B2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>42971</v>
       </c>
       <c r="B3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="8877" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8877" s="44"/>
-      <c r="B8877" s="44"/>
-    </row>
-    <row r="8878" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8878" s="44"/>
-      <c r="B8878" s="44"/>
-    </row>
-    <row r="8879" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8879" s="44"/>
-      <c r="B8879" s="44"/>
-    </row>
-    <row r="8880" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8880" s="44"/>
-      <c r="B8880" s="44"/>
-    </row>
-    <row r="8881" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8881" s="44"/>
-      <c r="B8881" s="44"/>
-    </row>
-    <row r="8882" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8882" s="44"/>
-      <c r="B8882" s="44"/>
-    </row>
-    <row r="8883" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8883" s="44"/>
-      <c r="B8883" s="44"/>
-    </row>
-    <row r="8884" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8884" s="44"/>
-      <c r="B8884" s="44"/>
-    </row>
-    <row r="8885" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8885" s="44"/>
-      <c r="B8885" s="44"/>
-    </row>
-    <row r="8886" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8886" s="44"/>
-      <c r="B8886" s="44"/>
-    </row>
-    <row r="8887" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8887" s="44"/>
-      <c r="B8887" s="44"/>
-    </row>
-    <row r="8888" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8888" s="44" t="s">
-        <v>703</v>
-      </c>
-      <c r="B8888" s="44"/>
-    </row>
-    <row r="8889" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8889" s="44"/>
-      <c r="B8889" s="44"/>
-    </row>
-    <row r="8890" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8890" s="44"/>
-      <c r="B8890" s="44"/>
-    </row>
-    <row r="8891" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8891" s="44"/>
-      <c r="B8891" s="44"/>
-    </row>
-    <row r="8892" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8892" s="44"/>
-      <c r="B8892" s="44"/>
-    </row>
-    <row r="8893" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8893" s="44"/>
-      <c r="B8893" s="44"/>
-    </row>
-    <row r="8894" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8894" s="44"/>
-      <c r="B8894" s="44"/>
-    </row>
-    <row r="8895" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8895" s="44"/>
-      <c r="B8895" s="44"/>
-    </row>
-    <row r="8896" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8896" s="44"/>
-      <c r="B8896" s="44"/>
-    </row>
-    <row r="8897" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8897" s="44"/>
-      <c r="B8897" s="44"/>
-    </row>
-    <row r="8898" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8898" s="44"/>
-      <c r="B8898" s="44"/>
-    </row>
-    <row r="8899" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8899" s="44"/>
-      <c r="B8899" s="44"/>
-    </row>
-    <row r="8900" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8900" s="44"/>
-      <c r="B8900" s="44"/>
-    </row>
-    <row r="8901" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8901" s="44"/>
-      <c r="B8901" s="44"/>
-    </row>
-    <row r="8902" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8902" s="44"/>
-      <c r="B8902" s="44"/>
-    </row>
-    <row r="8903" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8903" s="44"/>
-      <c r="B8903" s="44"/>
-    </row>
-    <row r="8904" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8904" s="44"/>
-      <c r="B8904" s="44"/>
-    </row>
-    <row r="8905" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8905" s="44"/>
-      <c r="B8905" s="44"/>
-    </row>
-    <row r="8906" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8906" s="44"/>
-      <c r="B8906" s="44"/>
-    </row>
-    <row r="8907" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8907" s="44"/>
-      <c r="B8907" s="44"/>
-    </row>
-    <row r="8908" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8908" s="44"/>
-      <c r="B8908" s="44"/>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>44288</v>
+      </c>
+      <c r="B4" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="8877" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8877" s="41"/>
+      <c r="B8877" s="41"/>
+    </row>
+    <row r="8878" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8878" s="41"/>
+      <c r="B8878" s="41"/>
+    </row>
+    <row r="8879" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8879" s="41"/>
+      <c r="B8879" s="41"/>
+    </row>
+    <row r="8880" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8880" s="41"/>
+      <c r="B8880" s="41"/>
+    </row>
+    <row r="8881" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8881" s="41"/>
+      <c r="B8881" s="41"/>
+    </row>
+    <row r="8882" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8882" s="41"/>
+      <c r="B8882" s="41"/>
+    </row>
+    <row r="8883" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8883" s="41"/>
+      <c r="B8883" s="41"/>
+    </row>
+    <row r="8884" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8884" s="41"/>
+      <c r="B8884" s="41"/>
+    </row>
+    <row r="8885" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8885" s="41"/>
+      <c r="B8885" s="41"/>
+    </row>
+    <row r="8886" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8886" s="41"/>
+      <c r="B8886" s="41"/>
+    </row>
+    <row r="8887" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8887" s="41"/>
+      <c r="B8887" s="41"/>
+    </row>
+    <row r="8888" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8888" s="41" t="s">
+        <v>652</v>
+      </c>
+      <c r="B8888" s="41"/>
+    </row>
+    <row r="8889" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8889" s="41"/>
+      <c r="B8889" s="41"/>
+    </row>
+    <row r="8890" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8890" s="41"/>
+      <c r="B8890" s="41"/>
+    </row>
+    <row r="8891" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8891" s="41"/>
+      <c r="B8891" s="41"/>
+    </row>
+    <row r="8892" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8892" s="41"/>
+      <c r="B8892" s="41"/>
+    </row>
+    <row r="8893" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8893" s="41"/>
+      <c r="B8893" s="41"/>
+    </row>
+    <row r="8894" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8894" s="41"/>
+      <c r="B8894" s="41"/>
+    </row>
+    <row r="8895" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8895" s="41"/>
+      <c r="B8895" s="41"/>
+    </row>
+    <row r="8896" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8896" s="41"/>
+      <c r="B8896" s="41"/>
+    </row>
+    <row r="8897" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8897" s="41"/>
+      <c r="B8897" s="41"/>
+    </row>
+    <row r="8898" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8898" s="41"/>
+      <c r="B8898" s="41"/>
+    </row>
+    <row r="8899" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8899" s="41"/>
+      <c r="B8899" s="41"/>
+    </row>
+    <row r="8900" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8900" s="41"/>
+      <c r="B8900" s="41"/>
+    </row>
+    <row r="8901" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8901" s="41"/>
+      <c r="B8901" s="41"/>
+    </row>
+    <row r="8902" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8902" s="41"/>
+      <c r="B8902" s="41"/>
+    </row>
+    <row r="8903" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8903" s="41"/>
+      <c r="B8903" s="41"/>
+    </row>
+    <row r="8904" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8904" s="41"/>
+      <c r="B8904" s="41"/>
+    </row>
+    <row r="8905" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8905" s="41"/>
+      <c r="B8905" s="41"/>
+    </row>
+    <row r="8906" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8906" s="41"/>
+      <c r="B8906" s="41"/>
+    </row>
+    <row r="8907" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8907" s="41"/>
+      <c r="B8907" s="41"/>
+    </row>
+    <row r="8908" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8908" s="41"/>
+      <c r="B8908" s="41"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.69124999999999992" right="0.69124999999999992" top="0.74062499999999998" bottom="0.74062499999999998" header="0.29624999999999996" footer="0.29624999999999996"/>
+  <pageSetup orientation="portrait" copies="0"/>
+  <headerFooter alignWithMargins="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>